--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_2_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_2_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1772822.86556866</v>
+        <v>1822715.642219659</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>713587.768411118</v>
+        <v>713587.7684111178</v>
       </c>
     </row>
     <row r="8">
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>7.603382851973697</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>215.463570623987</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -712,10 +712,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -752,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>145.1806198985548</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>110.9174757594851</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -901,22 +901,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>58.39471844666277</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>51.51867270495129</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>62.13484214871499</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1025,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>14.59515906968671</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E7" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1138,22 +1138,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>75.08620022294134</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.30273751513505</v>
+        <v>82.05707201220442</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1183,7 +1183,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1211,16 +1211,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1259,19 +1259,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>147.2379120664689</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>200.8531994405235</v>
       </c>
     </row>
     <row r="10">
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>87.9134209649732</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>110.9211512983947</v>
       </c>
       <c r="F11" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1448,28 +1448,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>17.87496711103717</v>
       </c>
       <c r="H12" t="n">
         <v>109.1906224126114</v>
       </c>
       <c r="I12" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>165.8272126914158</v>
@@ -1505,16 +1505,16 @@
         <v>198.8939788055617</v>
       </c>
       <c r="U12" t="n">
-        <v>45.61322009944943</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>106.9147497326711</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1590,13 +1590,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>98.68313739545464</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1618,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>333.4403157157206</v>
       </c>
       <c r="I14" t="n">
-        <v>122.0248355927764</v>
+        <v>48.08868973207552</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,16 +1663,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1691,7 +1691,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>7.098990860733895</v>
       </c>
       <c r="H15" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>71.79246515658113</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,19 +1733,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S15" t="n">
         <v>165.8272126914158</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -1754,7 +1754,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>73.36175976093791</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1824,13 +1824,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>38.97640474817491</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1849,22 +1849,22 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>125.1103659546714</v>
       </c>
       <c r="G17" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>333.4403157157206</v>
       </c>
       <c r="I17" t="n">
-        <v>64.62756901458602</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1925,22 +1925,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.0282495084215</v>
+        <v>17.88058715866282</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I18" t="n">
         <v>78.54202280713804</v>
@@ -1970,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -1991,7 +1991,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>70.91371252385456</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>106.9147497326711</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2061,16 +2061,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>38.97640474817491</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>128.2538830184498</v>
+        <v>17.95817021688028</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,10 +2128,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2159,16 +2159,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>109.1906224126114</v>
       </c>
       <c r="I21" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,22 +2207,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>80.58358449827553</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S21" t="n">
         <v>165.8272126914158</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>105.4567117719411</v>
       </c>
       <c r="W21" t="n">
-        <v>14.75772344164853</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>31.46288204362224</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>0.2463748798973941</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2332,10 +2332,10 @@
         <v>405.7415719969023</v>
       </c>
       <c r="G23" t="n">
-        <v>405.7415719969023</v>
+        <v>264.9266937189051</v>
       </c>
       <c r="H23" t="n">
-        <v>189.1213404451501</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I23" t="n">
         <v>187.7594695105699</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2402,16 +2402,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>113.4883178883721</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2447,10 +2447,10 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>77.019324275933</v>
       </c>
       <c r="U24" t="n">
         <v>225.9206407878966</v>
@@ -2462,10 +2462,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>11.81861933956894</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>145.6674229028285</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>405.7415719969023</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>183.6796284498938</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2620,10 +2620,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>17.95817021688007</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2642,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2687,7 +2687,7 @@
         <v>165.8272126914158</v>
       </c>
       <c r="T27" t="n">
-        <v>198.8939788055617</v>
+        <v>114.1942888468236</v>
       </c>
       <c r="U27" t="n">
         <v>225.9206407878966</v>
@@ -2696,7 +2696,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>9.350212746780572</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>38.97640474817485</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2772,10 +2772,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>73.36175976093791</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2797,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2806,7 +2806,7 @@
         <v>405.7415719969023</v>
       </c>
       <c r="G29" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2839,28 +2839,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>84.93904775296049</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>137.1840518004451</v>
       </c>
     </row>
     <row r="30">
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -2879,10 +2879,10 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>81.12752273267782</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2921,10 +2921,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>16.45672081689159</v>
       </c>
       <c r="T30" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>225.9206407878966</v>
@@ -2939,7 +2939,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2952,13 +2952,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>9.637108967925702</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3009,13 +3009,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>73.36175976093786</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3037,13 +3037,13 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>17.95817021688013</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>405.7415719969023</v>
+        <v>323.0433252618776</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3094,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3113,7 +3113,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3122,7 +3122,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.5439382344022294</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3155,13 +3155,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>80.58358449827553</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>198.8939788055617</v>
+        <v>132.5764359736007</v>
       </c>
       <c r="U33" t="n">
         <v>225.9206407878966</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>177.9974450266851</v>
       </c>
       <c r="T34" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>98.68313739545458</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3274,10 +3274,10 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>20.59308894110746</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>72.1362818190071</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3344,28 +3344,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>87.30283807112622</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,13 +3392,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T36" t="n">
-        <v>198.8939788055617</v>
+        <v>21.2485655913905</v>
       </c>
       <c r="U36" t="n">
         <v>225.9206407878966</v>
@@ -3407,10 +3407,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>160.0903419479083</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3480,13 +3480,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>38.97640474817491</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3505,22 +3505,22 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>104.4946504455962</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3550,10 +3550,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>23.09588249222454</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3562,16 +3562,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3581,16 +3581,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>83.78017078776219</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,13 +3629,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S39" t="n">
-        <v>165.8272126914158</v>
+        <v>98.02137000067792</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U39" t="n">
         <v>225.9206407878966</v>
@@ -3650,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>39.19479062707035</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>98.68313739545464</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U40" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>370.8205562787277</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3751,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3802,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>74.45877349636949</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -3830,16 +3830,16 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>78.54202280713804</v>
+        <v>21.2201098503462</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3872,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>64.45122922267984</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U42" t="n">
         <v>225.9206407878966</v>
@@ -3881,7 +3881,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.7266695472104</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>98.68313739545464</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>157.7727335375555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3991,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>17.95817021688007</v>
+        <v>69.0167005930995</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4058,13 +4058,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>128.5517364212869</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4103,19 +4103,19 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>125.1415412717829</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>225.9206407878966</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>158.2525819861381</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>98.68313739545464</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>499.3853800778592</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="C2" t="n">
-        <v>499.3853800778592</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="D2" t="n">
-        <v>499.3853800778592</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="E2" t="n">
-        <v>281.7454097505996</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="F2" t="n">
-        <v>274.7999090013961</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G2" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H2" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I2" t="n">
         <v>31.35113235729608</v>
@@ -4360,22 +4360,22 @@
         <v>742.8341567219593</v>
       </c>
       <c r="T2" t="n">
-        <v>742.8341567219593</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U2" t="n">
-        <v>499.3853800778592</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="V2" t="n">
-        <v>499.3853800778592</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="W2" t="n">
-        <v>499.3853800778592</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="X2" t="n">
-        <v>499.3853800778592</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="Y2" t="n">
-        <v>499.3853800778592</v>
+        <v>517.4848137278872</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>649.1947276839472</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C3" t="n">
-        <v>474.7416984028202</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D3" t="n">
-        <v>325.807288741569</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E3" t="n">
-        <v>166.5698337361135</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F3" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G3" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4412,16 +4412,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N3" t="n">
-        <v>851.8101010141643</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O3" t="n">
         <v>964.0571555106362</v>
@@ -4454,7 +4454,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Y3" t="n">
-        <v>817.4100647040152</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C4" t="n">
-        <v>41.77557929797318</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D4" t="n">
-        <v>41.77557929797318</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E4" t="n">
-        <v>41.77557929797318</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F4" t="n">
-        <v>41.77557929797318</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G4" t="n">
-        <v>41.77557929797318</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H4" t="n">
-        <v>41.77557929797318</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="I4" t="n">
-        <v>41.77557929797318</v>
+        <v>852.019301208126</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>852.019301208126</v>
       </c>
       <c r="K4" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L4" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M4" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N4" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O4" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R4" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S4" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T4" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U4" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V4" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W4" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X4" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y4" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="5">
@@ -4549,19 +4549,19 @@
         <v>577.2332497330343</v>
       </c>
       <c r="D5" t="n">
-        <v>577.2332497330343</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="E5" t="n">
-        <v>577.2332497330343</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="F5" t="n">
-        <v>518.2486856454962</v>
+        <v>326.8389723397308</v>
       </c>
       <c r="G5" t="n">
-        <v>274.7999090013961</v>
+        <v>83.39019569563072</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>83.39019569563072</v>
       </c>
       <c r="I5" t="n">
         <v>31.35113235729608</v>
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>901.2946886937524</v>
+        <v>110.334904905842</v>
       </c>
       <c r="C6" t="n">
-        <v>726.8416594126254</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D6" t="n">
-        <v>577.9072497513741</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E6" t="n">
-        <v>418.6697947459187</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F6" t="n">
-        <v>272.1352367728036</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G6" t="n">
-        <v>133.4044113554191</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4655,13 +4655,13 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
         <v>964.0571555106362</v>
@@ -4673,25 +4673,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W6" t="n">
-        <v>964.0571555106362</v>
+        <v>110.334904905842</v>
       </c>
       <c r="X6" t="n">
-        <v>964.0571555106362</v>
+        <v>110.334904905842</v>
       </c>
       <c r="Y6" t="n">
-        <v>964.0571555106362</v>
+        <v>110.334904905842</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4743,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>122.6530896684844</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="C8" t="n">
-        <v>122.6530896684844</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="D8" t="n">
-        <v>122.6530896684844</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="E8" t="n">
-        <v>122.6530896684844</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="F8" t="n">
-        <v>46.80844297864461</v>
+        <v>326.8389723397308</v>
       </c>
       <c r="G8" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
         <v>31.35113235729608</v>
@@ -4831,25 +4831,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>366.1018663125844</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U8" t="n">
-        <v>366.1018663125844</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V8" t="n">
-        <v>122.6530896684844</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="W8" t="n">
-        <v>122.6530896684844</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="X8" t="n">
-        <v>122.6530896684844</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="Y8" t="n">
-        <v>122.6530896684844</v>
+        <v>577.2332497330343</v>
       </c>
     </row>
     <row r="9">
@@ -4859,13 +4859,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>110.334904905842</v>
+        <v>592.9597988536757</v>
       </c>
       <c r="C9" t="n">
-        <v>110.334904905842</v>
+        <v>418.5067695725487</v>
       </c>
       <c r="D9" t="n">
-        <v>110.334904905842</v>
+        <v>269.5723599112974</v>
       </c>
       <c r="E9" t="n">
         <v>110.334904905842</v>
@@ -4886,49 +4886,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M9" t="n">
-        <v>487.8483949674443</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>110.334904905842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>110.334904905842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X9" t="n">
-        <v>110.334904905842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y9" t="n">
-        <v>110.334904905842</v>
+        <v>761.1751358737438</v>
       </c>
     </row>
     <row r="10">
@@ -4938,7 +4938,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C10" t="n">
         <v>41.77557929797318</v>
@@ -5001,13 +5001,13 @@
         <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1057.565162313455</v>
+        <v>670.9653222493332</v>
       </c>
       <c r="C11" t="n">
-        <v>968.7637269953007</v>
+        <v>670.9653222493332</v>
       </c>
       <c r="D11" t="n">
-        <v>968.7637269953007</v>
+        <v>670.9653222493332</v>
       </c>
       <c r="E11" t="n">
-        <v>968.7637269953007</v>
+        <v>558.9237552812577</v>
       </c>
       <c r="F11" t="n">
-        <v>558.9237552812579</v>
+        <v>558.9237552812577</v>
       </c>
       <c r="G11" t="n">
-        <v>558.9237552812579</v>
+        <v>558.9237552812577</v>
       </c>
       <c r="H11" t="n">
         <v>222.1153555684087</v>
       </c>
       <c r="I11" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J11" t="n">
         <v>70.13987180521505</v>
@@ -5047,10 +5047,10 @@
         <v>247.3580469011318</v>
       </c>
       <c r="L11" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528324</v>
       </c>
       <c r="M11" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941454</v>
       </c>
       <c r="N11" t="n">
         <v>1148.836227140252</v>
@@ -5065,7 +5065,7 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R11" t="n">
-        <v>1508.970645214178</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S11" t="n">
         <v>1311.402045381201</v>
@@ -5096,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>222.0882603251556</v>
+        <v>643.4333000345036</v>
       </c>
       <c r="C12" t="n">
-        <v>222.0882603251556</v>
+        <v>468.9802707533767</v>
       </c>
       <c r="D12" t="n">
-        <v>222.0882603251556</v>
+        <v>320.0458610921254</v>
       </c>
       <c r="E12" t="n">
-        <v>222.0882603251556</v>
+        <v>160.8084060866699</v>
       </c>
       <c r="F12" t="n">
-        <v>222.0882603251556</v>
+        <v>160.8084060866699</v>
       </c>
       <c r="G12" t="n">
-        <v>222.0882603251556</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="H12" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I12" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J12" t="n">
         <v>61.20822116384403</v>
@@ -5126,46 +5126,46 @@
         <v>61.20822116384403</v>
       </c>
       <c r="L12" t="n">
-        <v>147.3709770270848</v>
+        <v>256.6067387278473</v>
       </c>
       <c r="M12" t="n">
-        <v>546.7891136313477</v>
+        <v>656.0248753321102</v>
       </c>
       <c r="N12" t="n">
-        <v>948.4732699082811</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O12" t="n">
-        <v>1271.486777082839</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P12" t="n">
-        <v>1513.730526286847</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q12" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R12" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S12" t="n">
-        <v>1374.066492846507</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T12" t="n">
-        <v>1173.163483952</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="U12" t="n">
-        <v>1127.089524255587</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="V12" t="n">
-        <v>891.937416023844</v>
+        <v>1019.408935819526</v>
       </c>
       <c r="W12" t="n">
-        <v>637.7000592956424</v>
+        <v>1019.408935819526</v>
       </c>
       <c r="X12" t="n">
-        <v>429.8485590901096</v>
+        <v>1019.408935819526</v>
       </c>
       <c r="Y12" t="n">
-        <v>222.0882603251556</v>
+        <v>811.6486370545717</v>
       </c>
     </row>
     <row r="13">
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>140.45402245942</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C13" t="n">
-        <v>140.45402245942</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D13" t="n">
-        <v>140.45402245942</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E13" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F13" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G13" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H13" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I13" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J13" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K13" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L13" t="n">
         <v>107.0302722280248</v>
@@ -5229,22 +5229,22 @@
         <v>361.2466016029501</v>
       </c>
       <c r="T13" t="n">
-        <v>361.2466016029501</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="U13" t="n">
-        <v>361.2466016029501</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="V13" t="n">
-        <v>361.2466016029501</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="W13" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X13" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y13" t="n">
-        <v>140.45402245942</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="14">
@@ -5254,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>902.3651068763172</v>
+        <v>417.8421595454049</v>
       </c>
       <c r="C14" t="n">
-        <v>902.3651068763172</v>
+        <v>417.8421595454049</v>
       </c>
       <c r="D14" t="n">
-        <v>902.3651068763172</v>
+        <v>417.8421595454049</v>
       </c>
       <c r="E14" t="n">
-        <v>902.3651068763172</v>
+        <v>417.8421595454049</v>
       </c>
       <c r="F14" t="n">
-        <v>492.5251351622745</v>
+        <v>417.8421595454049</v>
       </c>
       <c r="G14" t="n">
-        <v>492.5251351622745</v>
+        <v>417.8421595454049</v>
       </c>
       <c r="H14" t="n">
-        <v>155.7167354494254</v>
+        <v>81.03375983255575</v>
       </c>
       <c r="I14" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J14" t="n">
-        <v>70.13987180521497</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K14" t="n">
         <v>247.3580469011318</v>
       </c>
       <c r="L14" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528324</v>
       </c>
       <c r="M14" t="n">
-        <v>838.8947028941456</v>
+        <v>838.8947028941453</v>
       </c>
       <c r="N14" t="n">
         <v>1148.836227140252</v>
@@ -5311,19 +5311,19 @@
         <v>1508.970645214177</v>
       </c>
       <c r="U14" t="n">
-        <v>1255.133762146431</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="V14" t="n">
-        <v>1255.133762146431</v>
+        <v>1177.907757870606</v>
       </c>
       <c r="W14" t="n">
-        <v>902.3651068763172</v>
+        <v>1177.907757870606</v>
       </c>
       <c r="X14" t="n">
-        <v>902.3651068763172</v>
+        <v>804.4419996095266</v>
       </c>
       <c r="Y14" t="n">
-        <v>902.3651068763172</v>
+        <v>804.4419996095266</v>
       </c>
     </row>
     <row r="15">
@@ -5333,46 +5333,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>361.8050832977081</v>
+        <v>335.0989912332436</v>
       </c>
       <c r="C15" t="n">
-        <v>361.8050832977081</v>
+        <v>335.0989912332436</v>
       </c>
       <c r="D15" t="n">
-        <v>361.8050832977081</v>
+        <v>186.1645815719924</v>
       </c>
       <c r="E15" t="n">
-        <v>361.8050832977081</v>
+        <v>186.1645815719924</v>
       </c>
       <c r="F15" t="n">
-        <v>215.2705253245931</v>
+        <v>39.63002359887733</v>
       </c>
       <c r="G15" t="n">
-        <v>215.2705253245931</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H15" t="n">
-        <v>104.9769673320563</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I15" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J15" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K15" t="n">
-        <v>32.45932575975218</v>
+        <v>201.1187329501917</v>
       </c>
       <c r="L15" t="n">
-        <v>330.1910807414154</v>
+        <v>498.8504879318549</v>
       </c>
       <c r="M15" t="n">
-        <v>729.6092173456783</v>
+        <v>898.2686245361178</v>
       </c>
       <c r="N15" t="n">
-        <v>1131.293373622612</v>
+        <v>1299.952780813051</v>
       </c>
       <c r="O15" t="n">
-        <v>1454.30688079717</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="P15" t="n">
         <v>1622.966287987609</v>
@@ -5381,28 +5381,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R15" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S15" t="n">
-        <v>1455.464052945775</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T15" t="n">
-        <v>1455.464052945775</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U15" t="n">
-        <v>1227.261385483253</v>
+        <v>1173.163483952</v>
       </c>
       <c r="V15" t="n">
-        <v>992.1092772515105</v>
+        <v>1173.163483952</v>
       </c>
       <c r="W15" t="n">
-        <v>737.871920523309</v>
+        <v>918.9261272237984</v>
       </c>
       <c r="X15" t="n">
-        <v>530.0204203177761</v>
+        <v>711.0746270182656</v>
       </c>
       <c r="Y15" t="n">
-        <v>530.0204203177761</v>
+        <v>503.3143282533117</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>32.45932575975218</v>
+        <v>106.5621133970632</v>
       </c>
       <c r="C16" t="n">
-        <v>32.45932575975218</v>
+        <v>106.5621133970632</v>
       </c>
       <c r="D16" t="n">
-        <v>32.45932575975218</v>
+        <v>106.5621133970632</v>
       </c>
       <c r="E16" t="n">
-        <v>32.45932575975218</v>
+        <v>106.5621133970632</v>
       </c>
       <c r="F16" t="n">
-        <v>32.45932575975218</v>
+        <v>106.5621133970632</v>
       </c>
       <c r="G16" t="n">
-        <v>32.45932575975218</v>
+        <v>106.5621133970632</v>
       </c>
       <c r="H16" t="n">
-        <v>32.45932575975218</v>
+        <v>106.5621133970632</v>
       </c>
       <c r="I16" t="n">
         <v>32.45932575975218</v>
@@ -5472,16 +5472,16 @@
         <v>361.2466016029501</v>
       </c>
       <c r="V16" t="n">
-        <v>361.2466016029501</v>
+        <v>106.5621133970632</v>
       </c>
       <c r="W16" t="n">
-        <v>71.82943156598947</v>
+        <v>106.5621133970632</v>
       </c>
       <c r="X16" t="n">
-        <v>32.45932575975218</v>
+        <v>106.5621133970632</v>
       </c>
       <c r="Y16" t="n">
-        <v>32.45932575975218</v>
+        <v>106.5621133970632</v>
       </c>
     </row>
     <row r="17">
@@ -5491,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1202.653768535401</v>
+        <v>685.2978623061783</v>
       </c>
       <c r="C17" t="n">
-        <v>1202.653768535401</v>
+        <v>685.2978623061783</v>
       </c>
       <c r="D17" t="n">
-        <v>844.3880699286501</v>
+        <v>685.2978623061783</v>
       </c>
       <c r="E17" t="n">
-        <v>844.3880699286501</v>
+        <v>685.2978623061783</v>
       </c>
       <c r="F17" t="n">
-        <v>844.3880699286501</v>
+        <v>558.9237552812577</v>
       </c>
       <c r="G17" t="n">
-        <v>434.5480982146074</v>
+        <v>558.9237552812577</v>
       </c>
       <c r="H17" t="n">
-        <v>97.73969850175826</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I17" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J17" t="n">
-        <v>70.13987180521497</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K17" t="n">
         <v>247.3580469011318</v>
       </c>
       <c r="L17" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528324</v>
       </c>
       <c r="M17" t="n">
-        <v>838.8947028941456</v>
+        <v>838.8947028941454</v>
       </c>
       <c r="N17" t="n">
         <v>1148.836227140252</v>
@@ -5542,25 +5542,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S17" t="n">
-        <v>1425.397688154633</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T17" t="n">
-        <v>1202.653768535401</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U17" t="n">
-        <v>1202.653768535401</v>
+        <v>1369.129404919863</v>
       </c>
       <c r="V17" t="n">
-        <v>1202.653768535401</v>
+        <v>1038.066517576292</v>
       </c>
       <c r="W17" t="n">
-        <v>1202.653768535401</v>
+        <v>685.2978623061783</v>
       </c>
       <c r="X17" t="n">
-        <v>1202.653768535401</v>
+        <v>685.2978623061783</v>
       </c>
       <c r="Y17" t="n">
-        <v>1202.653768535401</v>
+        <v>685.2978623061783</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>720.1290724889419</v>
+        <v>240.1494594753201</v>
       </c>
       <c r="C18" t="n">
-        <v>545.6760432078149</v>
+        <v>240.1494594753201</v>
       </c>
       <c r="D18" t="n">
-        <v>396.7416335465637</v>
+        <v>240.1494594753201</v>
       </c>
       <c r="E18" t="n">
-        <v>396.7416335465637</v>
+        <v>240.1494594753201</v>
       </c>
       <c r="F18" t="n">
-        <v>250.2070755734487</v>
+        <v>240.1494594753201</v>
       </c>
       <c r="G18" t="n">
-        <v>111.7947023326189</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H18" t="n">
         <v>111.7947023326189</v>
@@ -5618,28 +5618,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R18" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S18" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="T18" t="n">
-        <v>1422.063279093102</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="U18" t="n">
-        <v>1422.063279093102</v>
+        <v>1313.366060425819</v>
       </c>
       <c r="V18" t="n">
-        <v>1422.063279093102</v>
+        <v>1078.213952194076</v>
       </c>
       <c r="W18" t="n">
-        <v>1167.825922364901</v>
+        <v>823.9765954658749</v>
       </c>
       <c r="X18" t="n">
-        <v>959.974422159368</v>
+        <v>616.1250952603421</v>
       </c>
       <c r="Y18" t="n">
-        <v>888.3444095090099</v>
+        <v>408.3647964953881</v>
       </c>
     </row>
     <row r="19">
@@ -5649,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>140.45402245942</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C19" t="n">
-        <v>140.45402245942</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D19" t="n">
-        <v>140.45402245942</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E19" t="n">
         <v>32.45932575975218</v>
@@ -5709,16 +5709,16 @@
         <v>361.2466016029501</v>
       </c>
       <c r="V19" t="n">
-        <v>361.2466016029501</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="W19" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X19" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y19" t="n">
-        <v>140.45402245942</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="20">
@@ -5728,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>547.7969551443093</v>
+        <v>846.2271159476759</v>
       </c>
       <c r="C20" t="n">
-        <v>547.7969551443093</v>
+        <v>846.2271159476759</v>
       </c>
       <c r="D20" t="n">
-        <v>547.7969551443093</v>
+        <v>846.2271159476759</v>
       </c>
       <c r="E20" t="n">
-        <v>162.0087025460651</v>
+        <v>460.4388633494316</v>
       </c>
       <c r="F20" t="n">
-        <v>162.0087025460651</v>
+        <v>50.59889163538884</v>
       </c>
       <c r="G20" t="n">
-        <v>162.0087025460651</v>
+        <v>50.59889163538884</v>
       </c>
       <c r="H20" t="n">
-        <v>162.0087025460651</v>
+        <v>50.59889163538884</v>
       </c>
       <c r="I20" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J20" t="n">
-        <v>70.13987180521485</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K20" t="n">
-        <v>247.3580469011317</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L20" t="n">
-        <v>519.4894913528324</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M20" t="n">
-        <v>838.8947028941454</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N20" t="n">
         <v>1148.836227140252</v>
@@ -5776,28 +5776,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R20" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S20" t="n">
-        <v>1311.402045381201</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T20" t="n">
-        <v>1311.402045381201</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U20" t="n">
-        <v>1311.402045381201</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V20" t="n">
-        <v>1311.402045381201</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W20" t="n">
-        <v>1311.402045381201</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X20" t="n">
-        <v>937.9362871201211</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y20" t="n">
-        <v>547.7969551443093</v>
+        <v>1232.826956011798</v>
       </c>
     </row>
     <row r="21">
@@ -5807,43 +5807,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>519.7380885714408</v>
+        <v>604.552695935497</v>
       </c>
       <c r="C21" t="n">
-        <v>519.7380885714408</v>
+        <v>430.09966665437</v>
       </c>
       <c r="D21" t="n">
-        <v>519.7380885714408</v>
+        <v>281.1652569931187</v>
       </c>
       <c r="E21" t="n">
-        <v>360.5006335659854</v>
+        <v>281.1652569931187</v>
       </c>
       <c r="F21" t="n">
-        <v>360.5006335659854</v>
+        <v>281.1652569931187</v>
       </c>
       <c r="G21" t="n">
-        <v>222.0882603251556</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="H21" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I21" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J21" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K21" t="n">
-        <v>32.45932575975218</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L21" t="n">
-        <v>330.1910807414154</v>
+        <v>505.9483651585071</v>
       </c>
       <c r="M21" t="n">
-        <v>729.6092173456783</v>
+        <v>905.3665017627701</v>
       </c>
       <c r="N21" t="n">
-        <v>1057.709031609043</v>
+        <v>1307.050658039703</v>
       </c>
       <c r="O21" t="n">
         <v>1380.722538783602</v>
@@ -5861,22 +5861,22 @@
         <v>1374.066492846507</v>
       </c>
       <c r="T21" t="n">
-        <v>1374.066492846507</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U21" t="n">
-        <v>1145.863825383985</v>
+        <v>1173.163483952</v>
       </c>
       <c r="V21" t="n">
-        <v>910.7117171522423</v>
+        <v>1066.641552869231</v>
       </c>
       <c r="W21" t="n">
-        <v>895.8049257970417</v>
+        <v>812.4041961410298</v>
       </c>
       <c r="X21" t="n">
-        <v>687.9534255915089</v>
+        <v>604.552695935497</v>
       </c>
       <c r="Y21" t="n">
-        <v>687.9534255915089</v>
+        <v>604.552695935497</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>361.24660160295</v>
+        <v>179.5981367727104</v>
       </c>
       <c r="C22" t="n">
-        <v>329.4659126699983</v>
+        <v>179.5981367727104</v>
       </c>
       <c r="D22" t="n">
-        <v>179.3492732576625</v>
+        <v>179.5981367727104</v>
       </c>
       <c r="E22" t="n">
-        <v>179.3492732576625</v>
+        <v>179.3492732576626</v>
       </c>
       <c r="F22" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G22" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H22" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I22" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J22" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K22" t="n">
-        <v>40.81344334191284</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L22" t="n">
         <v>107.0302722280248</v>
       </c>
       <c r="M22" t="n">
-        <v>187.2357570984439</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N22" t="n">
         <v>270.9687512285709</v>
       </c>
       <c r="O22" t="n">
-        <v>332.2934283710736</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P22" t="n">
-        <v>361.24660160295</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q22" t="n">
-        <v>361.24660160295</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R22" t="n">
-        <v>361.24660160295</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S22" t="n">
-        <v>361.24660160295</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T22" t="n">
-        <v>361.24660160295</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U22" t="n">
-        <v>361.24660160295</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V22" t="n">
-        <v>361.24660160295</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W22" t="n">
-        <v>361.24660160295</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X22" t="n">
-        <v>361.24660160295</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y22" t="n">
-        <v>361.24660160295</v>
+        <v>361.2466016029501</v>
       </c>
     </row>
     <row r="23">
@@ -5965,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1232.826956011797</v>
+        <v>1236.366447923488</v>
       </c>
       <c r="C23" t="n">
-        <v>1232.826956011797</v>
+        <v>1236.366447923488</v>
       </c>
       <c r="D23" t="n">
-        <v>1232.826956011797</v>
+        <v>1236.366447923488</v>
       </c>
       <c r="E23" t="n">
-        <v>1232.826956011797</v>
+        <v>1236.366447923488</v>
       </c>
       <c r="F23" t="n">
-        <v>822.9869842977546</v>
+        <v>826.5264762094448</v>
       </c>
       <c r="G23" t="n">
-        <v>413.1470125837118</v>
+        <v>558.9237552812579</v>
       </c>
       <c r="H23" t="n">
         <v>222.1153555684087</v>
       </c>
       <c r="I23" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J23" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K23" t="n">
         <v>247.3580469011318</v>
@@ -5998,7 +5998,7 @@
         <v>519.4894913528326</v>
       </c>
       <c r="M23" t="n">
-        <v>838.8947028941456</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N23" t="n">
         <v>1148.836227140252</v>
@@ -6034,7 +6034,7 @@
         <v>1622.966287987609</v>
       </c>
       <c r="Y23" t="n">
-        <v>1232.826956011797</v>
+        <v>1622.966287987609</v>
       </c>
     </row>
     <row r="24">
@@ -6044,46 +6044,46 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>321.5470195745884</v>
+        <v>491.8592862548239</v>
       </c>
       <c r="C24" t="n">
-        <v>147.0939902934614</v>
+        <v>317.4062569736969</v>
       </c>
       <c r="D24" t="n">
-        <v>32.45932575975218</v>
+        <v>317.4062569736969</v>
       </c>
       <c r="E24" t="n">
-        <v>32.45932575975218</v>
+        <v>317.4062569736969</v>
       </c>
       <c r="F24" t="n">
-        <v>32.45932575975218</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="G24" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H24" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I24" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J24" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K24" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="L24" t="n">
         <v>330.1910807414154</v>
       </c>
       <c r="M24" t="n">
-        <v>729.6092173456783</v>
+        <v>729.6092173456784</v>
       </c>
       <c r="N24" t="n">
-        <v>1131.293373622612</v>
+        <v>1057.709031609044</v>
       </c>
       <c r="O24" t="n">
-        <v>1454.30688079717</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P24" t="n">
         <v>1622.966287987609</v>
@@ -6095,25 +6095,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S24" t="n">
-        <v>1622.966287987609</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T24" t="n">
-        <v>1622.966287987609</v>
+        <v>1377.666755697358</v>
       </c>
       <c r="U24" t="n">
-        <v>1394.763620525087</v>
+        <v>1149.464088234836</v>
       </c>
       <c r="V24" t="n">
-        <v>1159.611512293345</v>
+        <v>914.3119800030936</v>
       </c>
       <c r="W24" t="n">
-        <v>905.3741555651432</v>
+        <v>660.074623274892</v>
       </c>
       <c r="X24" t="n">
-        <v>697.5226553596103</v>
+        <v>660.074623274892</v>
       </c>
       <c r="Y24" t="n">
-        <v>489.7623565946564</v>
+        <v>660.074623274892</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="C25" t="n">
-        <v>32.45932575975218</v>
+        <v>192.3104186750432</v>
       </c>
       <c r="D25" t="n">
-        <v>32.45932575975218</v>
+        <v>192.3104186750432</v>
       </c>
       <c r="E25" t="n">
-        <v>32.45932575975218</v>
+        <v>44.39732509265011</v>
       </c>
       <c r="F25" t="n">
-        <v>32.45932575975218</v>
+        <v>44.39732509265011</v>
       </c>
       <c r="G25" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H25" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I25" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J25" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K25" t="n">
-        <v>40.81344334191284</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L25" t="n">
         <v>107.0302722280248</v>
       </c>
       <c r="M25" t="n">
-        <v>187.2357570984439</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N25" t="n">
         <v>270.9687512285709</v>
       </c>
       <c r="O25" t="n">
-        <v>332.2934283710736</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P25" t="n">
-        <v>361.24660160295</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q25" t="n">
-        <v>361.24660160295</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R25" t="n">
-        <v>361.24660160295</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S25" t="n">
-        <v>214.1077905899919</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T25" t="n">
-        <v>214.1077905899919</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U25" t="n">
-        <v>214.1077905899919</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V25" t="n">
-        <v>214.1077905899919</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W25" t="n">
-        <v>214.1077905899919</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X25" t="n">
-        <v>214.1077905899919</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y25" t="n">
-        <v>214.1077905899919</v>
+        <v>361.2466016029501</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>828.0875500720392</v>
+        <v>1013.622528304255</v>
       </c>
       <c r="C26" t="n">
-        <v>828.0875500720392</v>
+        <v>1013.622528304255</v>
       </c>
       <c r="D26" t="n">
-        <v>828.0875500720392</v>
+        <v>1013.622528304255</v>
       </c>
       <c r="E26" t="n">
-        <v>442.2992974737949</v>
+        <v>627.8342757060109</v>
       </c>
       <c r="F26" t="n">
-        <v>32.45932575975218</v>
+        <v>217.9943039919681</v>
       </c>
       <c r="G26" t="n">
         <v>32.45932575975218</v>
@@ -6232,10 +6232,10 @@
         <v>247.3580469011318</v>
       </c>
       <c r="L26" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528324</v>
       </c>
       <c r="M26" t="n">
-        <v>838.8947028941456</v>
+        <v>838.8947028941454</v>
       </c>
       <c r="N26" t="n">
         <v>1148.836227140252</v>
@@ -6256,22 +6256,22 @@
         <v>1622.966287987609</v>
       </c>
       <c r="T26" t="n">
-        <v>1622.966287987609</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="U26" t="n">
-        <v>1622.966287987609</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="V26" t="n">
-        <v>1622.966287987609</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="W26" t="n">
-        <v>1622.966287987609</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="X26" t="n">
-        <v>1604.826722111973</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="Y26" t="n">
-        <v>1214.687390136161</v>
+        <v>1400.222368368377</v>
       </c>
     </row>
     <row r="27">
@@ -6281,13 +6281,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>366.1498100463347</v>
+        <v>206.9123550408792</v>
       </c>
       <c r="C27" t="n">
-        <v>191.6967807652077</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D27" t="n">
-        <v>191.6967807652077</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E27" t="n">
         <v>32.45932575975218</v>
@@ -6308,19 +6308,19 @@
         <v>32.45932575975218</v>
       </c>
       <c r="K27" t="n">
-        <v>32.45932575975218</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L27" t="n">
-        <v>330.1910807414154</v>
+        <v>505.948365158507</v>
       </c>
       <c r="M27" t="n">
-        <v>729.6092173456783</v>
+        <v>905.36650176277</v>
       </c>
       <c r="N27" t="n">
-        <v>1057.709031609043</v>
+        <v>1299.952780813051</v>
       </c>
       <c r="O27" t="n">
-        <v>1380.722538783602</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="P27" t="n">
         <v>1622.966287987609</v>
@@ -6335,22 +6335,22 @@
         <v>1455.464052945775</v>
       </c>
       <c r="T27" t="n">
-        <v>1254.561044051268</v>
+        <v>1340.116286433832</v>
       </c>
       <c r="U27" t="n">
-        <v>1026.358376588747</v>
+        <v>1111.91361897131</v>
       </c>
       <c r="V27" t="n">
-        <v>791.2062683570039</v>
+        <v>876.7615107395675</v>
       </c>
       <c r="W27" t="n">
-        <v>781.7616090168215</v>
+        <v>622.5241540113659</v>
       </c>
       <c r="X27" t="n">
-        <v>573.9101088112886</v>
+        <v>414.6726538058331</v>
       </c>
       <c r="Y27" t="n">
-        <v>366.1498100463347</v>
+        <v>206.9123550408792</v>
       </c>
     </row>
     <row r="28">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>71.82943156598941</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C28" t="n">
-        <v>71.82943156598941</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D28" t="n">
-        <v>71.82943156598941</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E28" t="n">
-        <v>71.82943156598941</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F28" t="n">
-        <v>71.82943156598941</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G28" t="n">
-        <v>71.82943156598941</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H28" t="n">
         <v>32.45932575975218</v>
@@ -6393,43 +6393,43 @@
         <v>107.0302722280248</v>
       </c>
       <c r="M28" t="n">
-        <v>187.2357570984439</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N28" t="n">
         <v>270.9687512285709</v>
       </c>
       <c r="O28" t="n">
-        <v>332.2934283710736</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P28" t="n">
-        <v>361.24660160295</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q28" t="n">
-        <v>361.24660160295</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R28" t="n">
-        <v>361.24660160295</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S28" t="n">
-        <v>361.24660160295</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T28" t="n">
-        <v>361.24660160295</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U28" t="n">
-        <v>361.24660160295</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V28" t="n">
-        <v>361.24660160295</v>
+        <v>106.5621133970632</v>
       </c>
       <c r="W28" t="n">
-        <v>71.82943156598941</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X28" t="n">
-        <v>71.82943156598941</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y28" t="n">
-        <v>71.82943156598941</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>852.1392691878377</v>
+        <v>800.5649960805454</v>
       </c>
       <c r="C29" t="n">
-        <v>852.1392691878377</v>
+        <v>800.5649960805454</v>
       </c>
       <c r="D29" t="n">
-        <v>852.1392691878377</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="E29" t="n">
-        <v>852.1392691878377</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="F29" t="n">
-        <v>442.2992974737949</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G29" t="n">
         <v>32.45932575975218</v>
@@ -6463,16 +6463,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J29" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K29" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L29" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M29" t="n">
-        <v>838.8947028941456</v>
+        <v>838.8947028941454</v>
       </c>
       <c r="N29" t="n">
         <v>1148.836227140252</v>
@@ -6487,28 +6487,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R29" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S29" t="n">
-        <v>1311.402045381201</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T29" t="n">
-        <v>1225.605027448918</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U29" t="n">
-        <v>1225.605027448918</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V29" t="n">
-        <v>1225.605027448918</v>
+        <v>1291.903400644038</v>
       </c>
       <c r="W29" t="n">
-        <v>1225.605027448918</v>
+        <v>939.1347453739243</v>
       </c>
       <c r="X29" t="n">
-        <v>852.1392691878377</v>
+        <v>939.1347453739243</v>
       </c>
       <c r="Y29" t="n">
-        <v>852.1392691878377</v>
+        <v>800.5649960805454</v>
       </c>
     </row>
     <row r="30">
@@ -6518,16 +6518,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>288.8593477001497</v>
+        <v>512.6843680194497</v>
       </c>
       <c r="C30" t="n">
-        <v>114.4063184190227</v>
+        <v>338.2313387383227</v>
       </c>
       <c r="D30" t="n">
-        <v>114.4063184190227</v>
+        <v>338.2313387383227</v>
       </c>
       <c r="E30" t="n">
-        <v>32.45932575975218</v>
+        <v>178.9938837328672</v>
       </c>
       <c r="F30" t="n">
         <v>32.45932575975218</v>
@@ -6542,16 +6542,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J30" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K30" t="n">
-        <v>32.45932575975218</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L30" t="n">
-        <v>330.1910807414154</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M30" t="n">
-        <v>729.6092173456783</v>
+        <v>934.1153971668618</v>
       </c>
       <c r="N30" t="n">
         <v>948.4732699082806</v>
@@ -6569,25 +6569,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S30" t="n">
-        <v>1622.966287987609</v>
+        <v>1606.343337667517</v>
       </c>
       <c r="T30" t="n">
-        <v>1422.063279093102</v>
+        <v>1606.343337667517</v>
       </c>
       <c r="U30" t="n">
-        <v>1193.860611630581</v>
+        <v>1378.140670204995</v>
       </c>
       <c r="V30" t="n">
-        <v>958.708503398838</v>
+        <v>1142.988561973252</v>
       </c>
       <c r="W30" t="n">
-        <v>704.4711466706365</v>
+        <v>888.7512052450506</v>
       </c>
       <c r="X30" t="n">
-        <v>496.6196464651036</v>
+        <v>680.8997050395178</v>
       </c>
       <c r="Y30" t="n">
-        <v>288.8593477001497</v>
+        <v>680.8997050395178</v>
       </c>
     </row>
     <row r="31">
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="C31" t="n">
-        <v>32.45932575975218</v>
+        <v>192.3104186750432</v>
       </c>
       <c r="D31" t="n">
-        <v>32.45932575975218</v>
+        <v>42.19377926270744</v>
       </c>
       <c r="E31" t="n">
         <v>32.45932575975218</v>
@@ -6630,43 +6630,43 @@
         <v>107.0302722280248</v>
       </c>
       <c r="M31" t="n">
-        <v>187.2357570984439</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N31" t="n">
         <v>270.9687512285709</v>
       </c>
       <c r="O31" t="n">
-        <v>332.2934283710736</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P31" t="n">
-        <v>361.24660160295</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q31" t="n">
-        <v>361.24660160295</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R31" t="n">
-        <v>361.24660160295</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S31" t="n">
-        <v>361.24660160295</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T31" t="n">
-        <v>361.24660160295</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U31" t="n">
-        <v>361.24660160295</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V31" t="n">
-        <v>106.5621133970631</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W31" t="n">
-        <v>106.5621133970631</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X31" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y31" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>846.2271159476757</v>
+        <v>358.7657149131639</v>
       </c>
       <c r="C32" t="n">
-        <v>846.2271159476757</v>
+        <v>358.7657149131639</v>
       </c>
       <c r="D32" t="n">
-        <v>846.2271159476757</v>
+        <v>358.7657149131639</v>
       </c>
       <c r="E32" t="n">
-        <v>460.4388633494314</v>
+        <v>358.7657149131639</v>
       </c>
       <c r="F32" t="n">
-        <v>442.2992974737949</v>
+        <v>358.7657149131639</v>
       </c>
       <c r="G32" t="n">
         <v>32.45932575975218</v>
@@ -6700,13 +6700,13 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J32" t="n">
-        <v>70.13987180521485</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K32" t="n">
-        <v>247.3580469011317</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L32" t="n">
-        <v>519.4894913528324</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M32" t="n">
         <v>838.8947028941454</v>
@@ -6724,28 +6724,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R32" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S32" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="T32" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="U32" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="V32" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="W32" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="X32" t="n">
-        <v>1622.966287987609</v>
+        <v>1135.504886953097</v>
       </c>
       <c r="Y32" t="n">
-        <v>1232.826956011797</v>
+        <v>745.3655549772857</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>207.4617876008815</v>
+        <v>355.8467647021305</v>
       </c>
       <c r="C33" t="n">
-        <v>33.00875831975443</v>
+        <v>181.3937354210034</v>
       </c>
       <c r="D33" t="n">
-        <v>33.00875831975443</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E33" t="n">
-        <v>33.00875831975443</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F33" t="n">
-        <v>33.00875831975443</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G33" t="n">
         <v>32.45932575975218</v>
@@ -6782,13 +6782,13 @@
         <v>32.45932575975218</v>
       </c>
       <c r="K33" t="n">
-        <v>208.2166101768439</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L33" t="n">
-        <v>505.948365158507</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M33" t="n">
-        <v>905.36650176277</v>
+        <v>729.6092173456783</v>
       </c>
       <c r="N33" t="n">
         <v>1057.709031609043</v>
@@ -6803,28 +6803,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R33" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S33" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T33" t="n">
-        <v>1340.665718993834</v>
+        <v>1489.050696095083</v>
       </c>
       <c r="U33" t="n">
-        <v>1112.463051531312</v>
+        <v>1260.848028632561</v>
       </c>
       <c r="V33" t="n">
-        <v>877.3109432995698</v>
+        <v>1025.695920400819</v>
       </c>
       <c r="W33" t="n">
-        <v>623.0735865713682</v>
+        <v>771.4585636726172</v>
       </c>
       <c r="X33" t="n">
-        <v>415.2220863658354</v>
+        <v>563.6070634670843</v>
       </c>
       <c r="Y33" t="n">
-        <v>207.4617876008815</v>
+        <v>355.8467647021305</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>32.45932575975218</v>
+        <v>181.4512025860964</v>
       </c>
       <c r="C34" t="n">
-        <v>32.45932575975218</v>
+        <v>181.4512025860964</v>
       </c>
       <c r="D34" t="n">
-        <v>32.45932575975218</v>
+        <v>181.4512025860964</v>
       </c>
       <c r="E34" t="n">
-        <v>32.45932575975218</v>
+        <v>181.4512025860964</v>
       </c>
       <c r="F34" t="n">
-        <v>32.45932575975218</v>
+        <v>181.4512025860964</v>
       </c>
       <c r="G34" t="n">
-        <v>32.45932575975218</v>
+        <v>181.4512025860964</v>
       </c>
       <c r="H34" t="n">
-        <v>32.45932575975218</v>
+        <v>181.4512025860964</v>
       </c>
       <c r="I34" t="n">
         <v>32.45932575975218</v>
@@ -6867,43 +6867,43 @@
         <v>107.0302722280248</v>
       </c>
       <c r="M34" t="n">
-        <v>187.2357570984439</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N34" t="n">
         <v>270.9687512285709</v>
       </c>
       <c r="O34" t="n">
-        <v>332.2934283710736</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P34" t="n">
-        <v>361.24660160295</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q34" t="n">
-        <v>361.24660160295</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R34" t="n">
-        <v>361.24660160295</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S34" t="n">
-        <v>361.24660160295</v>
+        <v>181.4512025860964</v>
       </c>
       <c r="T34" t="n">
-        <v>132.1392625228376</v>
+        <v>181.4512025860964</v>
       </c>
       <c r="U34" t="n">
-        <v>32.45932575975218</v>
+        <v>181.4512025860964</v>
       </c>
       <c r="V34" t="n">
-        <v>32.45932575975218</v>
+        <v>181.4512025860964</v>
       </c>
       <c r="W34" t="n">
-        <v>32.45932575975218</v>
+        <v>181.4512025860964</v>
       </c>
       <c r="X34" t="n">
-        <v>32.45932575975218</v>
+        <v>181.4512025860964</v>
       </c>
       <c r="Y34" t="n">
-        <v>32.45932575975218</v>
+        <v>181.4512025860964</v>
       </c>
     </row>
     <row r="35">
@@ -6913,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>418.2475783579964</v>
+        <v>442.299297473795</v>
       </c>
       <c r="C35" t="n">
-        <v>418.2475783579964</v>
+        <v>442.299297473795</v>
       </c>
       <c r="D35" t="n">
-        <v>418.2475783579964</v>
+        <v>442.299297473795</v>
       </c>
       <c r="E35" t="n">
-        <v>32.45932575975218</v>
+        <v>442.299297473795</v>
       </c>
       <c r="F35" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G35" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H35" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I35" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J35" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521497</v>
       </c>
       <c r="K35" t="n">
         <v>247.3580469011318</v>
       </c>
       <c r="L35" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528324</v>
       </c>
       <c r="M35" t="n">
-        <v>838.8947028941456</v>
+        <v>838.8947028941453</v>
       </c>
       <c r="N35" t="n">
         <v>1148.836227140252</v>
@@ -6964,25 +6964,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S35" t="n">
-        <v>1425.397688154633</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T35" t="n">
-        <v>1202.653768535401</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U35" t="n">
-        <v>1181.852668594888</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V35" t="n">
-        <v>1181.852668594888</v>
+        <v>1291.903400644039</v>
       </c>
       <c r="W35" t="n">
-        <v>1181.852668594888</v>
+        <v>1219.038469513729</v>
       </c>
       <c r="X35" t="n">
-        <v>808.3869103338081</v>
+        <v>1219.038469513729</v>
       </c>
       <c r="Y35" t="n">
-        <v>418.2475783579964</v>
+        <v>828.8991375379168</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>120.6440106800817</v>
+        <v>681.4882208202274</v>
       </c>
       <c r="C36" t="n">
-        <v>120.6440106800817</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="D36" t="n">
-        <v>120.6440106800817</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="E36" t="n">
-        <v>32.45932575975218</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F36" t="n">
-        <v>32.45932575975218</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G36" t="n">
-        <v>32.45932575975218</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H36" t="n">
-        <v>32.45932575975218</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I36" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J36" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K36" t="n">
-        <v>32.45932575975218</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L36" t="n">
-        <v>330.1910807414154</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M36" t="n">
-        <v>729.6092173456783</v>
+        <v>934.1153971668618</v>
       </c>
       <c r="N36" t="n">
-        <v>1131.293373622612</v>
+        <v>948.4732699082811</v>
       </c>
       <c r="O36" t="n">
-        <v>1454.30688079717</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P36" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286847</v>
       </c>
       <c r="Q36" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R36" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S36" t="n">
-        <v>1622.966287987609</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T36" t="n">
-        <v>1422.063279093102</v>
+        <v>1352.603295279446</v>
       </c>
       <c r="U36" t="n">
-        <v>1193.860611630581</v>
+        <v>1124.400627816924</v>
       </c>
       <c r="V36" t="n">
-        <v>958.708503398838</v>
+        <v>889.2485195851814</v>
       </c>
       <c r="W36" t="n">
-        <v>704.4711466706365</v>
+        <v>889.2485195851814</v>
       </c>
       <c r="X36" t="n">
-        <v>496.6196464651036</v>
+        <v>889.2485195851814</v>
       </c>
       <c r="Y36" t="n">
-        <v>288.8593477001497</v>
+        <v>681.4882208202274</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C37" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D37" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E37" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F37" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G37" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H37" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I37" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J37" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K37" t="n">
-        <v>40.81344334191284</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L37" t="n">
         <v>107.0302722280248</v>
       </c>
       <c r="M37" t="n">
-        <v>187.2357570984439</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N37" t="n">
         <v>270.9687512285709</v>
       </c>
       <c r="O37" t="n">
-        <v>332.2934283710736</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P37" t="n">
-        <v>361.24660160295</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q37" t="n">
-        <v>361.24660160295</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R37" t="n">
-        <v>194.1667418687505</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S37" t="n">
-        <v>194.1667418687505</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T37" t="n">
-        <v>194.1667418687505</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U37" t="n">
-        <v>194.1667418687505</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="V37" t="n">
-        <v>194.1667418687505</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="W37" t="n">
-        <v>194.1667418687505</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="X37" t="n">
-        <v>194.1667418687505</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.1667418687505</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>369.2677254726013</v>
+        <v>1291.903400644038</v>
       </c>
       <c r="C38" t="n">
-        <v>369.2677254726013</v>
+        <v>1186.35324867879</v>
       </c>
       <c r="D38" t="n">
-        <v>369.2677254726013</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="E38" t="n">
-        <v>369.2677254726013</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="F38" t="n">
-        <v>369.2677254726013</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G38" t="n">
-        <v>369.2677254726013</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H38" t="n">
         <v>32.45932575975218</v>
@@ -7174,16 +7174,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J38" t="n">
-        <v>70.13987180521485</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K38" t="n">
-        <v>247.3580469011316</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L38" t="n">
-        <v>519.4894913528324</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M38" t="n">
-        <v>838.8947028941453</v>
+        <v>838.8947028941454</v>
       </c>
       <c r="N38" t="n">
         <v>1148.836227140252</v>
@@ -7198,28 +7198,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R38" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S38" t="n">
-        <v>1485.641470979607</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T38" t="n">
-        <v>1485.641470979607</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U38" t="n">
-        <v>1485.641470979607</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V38" t="n">
-        <v>1485.641470979607</v>
+        <v>1291.903400644038</v>
       </c>
       <c r="W38" t="n">
-        <v>1132.872815709493</v>
+        <v>1291.903400644038</v>
       </c>
       <c r="X38" t="n">
-        <v>759.4070574484131</v>
+        <v>1291.903400644038</v>
       </c>
       <c r="Y38" t="n">
-        <v>369.2677254726013</v>
+        <v>1291.903400644038</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>530.1116217583551</v>
+        <v>355.8467647021305</v>
       </c>
       <c r="C39" t="n">
-        <v>355.6585924772281</v>
+        <v>181.3937354210034</v>
       </c>
       <c r="D39" t="n">
-        <v>271.0321573380744</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E39" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F39" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G39" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H39" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I39" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J39" t="n">
-        <v>61.20822116384402</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K39" t="n">
-        <v>236.9655055809357</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L39" t="n">
-        <v>534.6972605625989</v>
+        <v>505.948365158507</v>
       </c>
       <c r="M39" t="n">
-        <v>934.1153971668618</v>
+        <v>905.36650176277</v>
       </c>
       <c r="N39" t="n">
-        <v>948.4732699082806</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O39" t="n">
-        <v>1271.486777082839</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P39" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q39" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R39" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S39" t="n">
-        <v>1455.464052945775</v>
+        <v>1442.557243039171</v>
       </c>
       <c r="T39" t="n">
-        <v>1455.464052945775</v>
+        <v>1241.654234144665</v>
       </c>
       <c r="U39" t="n">
-        <v>1227.261385483253</v>
+        <v>1013.451566682143</v>
       </c>
       <c r="V39" t="n">
-        <v>992.1092772515105</v>
+        <v>778.2994584504002</v>
       </c>
       <c r="W39" t="n">
-        <v>737.871920523309</v>
+        <v>524.0621017221986</v>
       </c>
       <c r="X39" t="n">
-        <v>737.871920523309</v>
+        <v>524.0621017221986</v>
       </c>
       <c r="Y39" t="n">
-        <v>530.1116217583551</v>
+        <v>524.0621017221986</v>
       </c>
     </row>
     <row r="40">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>72.05002336285355</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C40" t="n">
-        <v>72.05002336285355</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D40" t="n">
-        <v>72.05002336285355</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E40" t="n">
-        <v>72.05002336285355</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F40" t="n">
-        <v>72.05002336285355</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G40" t="n">
-        <v>72.05002336285355</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H40" t="n">
         <v>32.45932575975218</v>
@@ -7341,43 +7341,43 @@
         <v>107.0302722280248</v>
       </c>
       <c r="M40" t="n">
-        <v>187.2357570984439</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N40" t="n">
         <v>270.9687512285709</v>
       </c>
       <c r="O40" t="n">
-        <v>332.2934283710736</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P40" t="n">
-        <v>361.24660160295</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q40" t="n">
-        <v>361.24660160295</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R40" t="n">
-        <v>361.24660160295</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S40" t="n">
-        <v>361.24660160295</v>
+        <v>261.5666648398646</v>
       </c>
       <c r="T40" t="n">
-        <v>361.24660160295</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="U40" t="n">
-        <v>72.05002336285355</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="V40" t="n">
-        <v>72.05002336285355</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="W40" t="n">
-        <v>72.05002336285355</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X40" t="n">
-        <v>72.05002336285355</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y40" t="n">
-        <v>72.05002336285355</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>828.0875500720392</v>
+        <v>418.2475783579964</v>
       </c>
       <c r="C41" t="n">
-        <v>828.0875500720392</v>
+        <v>418.2475783579964</v>
       </c>
       <c r="D41" t="n">
-        <v>828.0875500720392</v>
+        <v>418.2475783579964</v>
       </c>
       <c r="E41" t="n">
-        <v>442.2992974737949</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F41" t="n">
         <v>32.45932575975218</v>
@@ -7411,7 +7411,7 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J41" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521491</v>
       </c>
       <c r="K41" t="n">
         <v>247.3580469011317</v>
@@ -7438,25 +7438,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S41" t="n">
-        <v>1425.397688154633</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T41" t="n">
-        <v>1202.653768535401</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U41" t="n">
-        <v>1202.653768535401</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V41" t="n">
-        <v>1202.653768535401</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W41" t="n">
-        <v>1202.653768535401</v>
+        <v>1270.197632717495</v>
       </c>
       <c r="X41" t="n">
-        <v>1202.653768535401</v>
+        <v>1194.98675039793</v>
       </c>
       <c r="Y41" t="n">
-        <v>1202.653768535401</v>
+        <v>804.8474184221182</v>
       </c>
     </row>
     <row r="42">
@@ -7466,46 +7466,46 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>424.6601048545757</v>
+        <v>374.8813674082833</v>
       </c>
       <c r="C42" t="n">
-        <v>250.2070755734487</v>
+        <v>200.4283381271563</v>
       </c>
       <c r="D42" t="n">
-        <v>250.2070755734487</v>
+        <v>200.4283381271563</v>
       </c>
       <c r="E42" t="n">
-        <v>250.2070755734487</v>
+        <v>200.4283381271563</v>
       </c>
       <c r="F42" t="n">
-        <v>250.2070755734487</v>
+        <v>53.89378015404128</v>
       </c>
       <c r="G42" t="n">
-        <v>111.7947023326189</v>
+        <v>53.89378015404128</v>
       </c>
       <c r="H42" t="n">
-        <v>111.7947023326189</v>
+        <v>53.89378015404128</v>
       </c>
       <c r="I42" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J42" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K42" t="n">
-        <v>61.20822116384403</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L42" t="n">
-        <v>358.9399761455072</v>
+        <v>505.948365158507</v>
       </c>
       <c r="M42" t="n">
-        <v>758.3581127497702</v>
+        <v>905.36650176277</v>
       </c>
       <c r="N42" t="n">
-        <v>1160.042269026703</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O42" t="n">
-        <v>1483.055776201262</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P42" t="n">
         <v>1622.966287987609</v>
@@ -7520,22 +7520,22 @@
         <v>1622.966287987609</v>
       </c>
       <c r="T42" t="n">
-        <v>1557.864036247528</v>
+        <v>1422.063279093102</v>
       </c>
       <c r="U42" t="n">
-        <v>1329.661368785007</v>
+        <v>1193.860611630581</v>
       </c>
       <c r="V42" t="n">
-        <v>1094.509260553264</v>
+        <v>958.708503398838</v>
       </c>
       <c r="W42" t="n">
-        <v>840.2719038250625</v>
+        <v>958.708503398838</v>
       </c>
       <c r="X42" t="n">
-        <v>632.4204036195297</v>
+        <v>750.8570031933052</v>
       </c>
       <c r="Y42" t="n">
-        <v>424.6601048545757</v>
+        <v>543.0967044283514</v>
       </c>
     </row>
     <row r="43">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>201.8802040902677</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C43" t="n">
-        <v>201.8802040902677</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D43" t="n">
-        <v>201.8802040902677</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E43" t="n">
-        <v>201.8802040902677</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F43" t="n">
-        <v>201.8802040902677</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G43" t="n">
         <v>32.45932575975218</v>
@@ -7593,28 +7593,28 @@
         <v>361.2466016029501</v>
       </c>
       <c r="R43" t="n">
-        <v>361.2466016029501</v>
+        <v>261.5666648398646</v>
       </c>
       <c r="S43" t="n">
-        <v>361.2466016029501</v>
+        <v>261.5666648398646</v>
       </c>
       <c r="T43" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="U43" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="V43" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="W43" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X43" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y43" t="n">
-        <v>201.8802040902677</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>828.0875500720392</v>
+        <v>776.5132769647469</v>
       </c>
       <c r="C44" t="n">
-        <v>828.0875500720392</v>
+        <v>776.5132769647469</v>
       </c>
       <c r="D44" t="n">
-        <v>828.0875500720392</v>
+        <v>418.2475783579964</v>
       </c>
       <c r="E44" t="n">
-        <v>442.2992974737949</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F44" t="n">
-        <v>442.2992974737949</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G44" t="n">
         <v>32.45932575975218</v>
@@ -7672,28 +7672,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R44" t="n">
-        <v>1604.826722111973</v>
+        <v>1553.25244900468</v>
       </c>
       <c r="S44" t="n">
-        <v>1604.826722111973</v>
+        <v>1553.25244900468</v>
       </c>
       <c r="T44" t="n">
-        <v>1604.826722111973</v>
+        <v>1553.25244900468</v>
       </c>
       <c r="U44" t="n">
-        <v>1604.826722111973</v>
+        <v>1553.25244900468</v>
       </c>
       <c r="V44" t="n">
-        <v>1604.826722111973</v>
+        <v>1553.25244900468</v>
       </c>
       <c r="W44" t="n">
-        <v>1604.826722111973</v>
+        <v>1553.25244900468</v>
       </c>
       <c r="X44" t="n">
-        <v>1604.826722111973</v>
+        <v>1553.25244900468</v>
       </c>
       <c r="Y44" t="n">
-        <v>1214.687390136161</v>
+        <v>1163.113117028869</v>
       </c>
     </row>
     <row r="45">
@@ -7703,13 +7703,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>181.3937354210034</v>
+        <v>321.5470195745884</v>
       </c>
       <c r="C45" t="n">
-        <v>181.3937354210034</v>
+        <v>191.6967807652077</v>
       </c>
       <c r="D45" t="n">
-        <v>32.45932575975218</v>
+        <v>191.6967807652077</v>
       </c>
       <c r="E45" t="n">
         <v>32.45932575975218</v>
@@ -7751,28 +7751,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R45" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S45" t="n">
-        <v>1374.066492846507</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T45" t="n">
-        <v>1247.660895602281</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U45" t="n">
-        <v>1019.45822813976</v>
+        <v>1394.763620525087</v>
       </c>
       <c r="V45" t="n">
-        <v>1019.45822813976</v>
+        <v>1159.611512293345</v>
       </c>
       <c r="W45" t="n">
-        <v>765.2208714115582</v>
+        <v>905.3741555651432</v>
       </c>
       <c r="X45" t="n">
-        <v>557.3693712060253</v>
+        <v>697.5226553596103</v>
       </c>
       <c r="Y45" t="n">
-        <v>349.6090724410715</v>
+        <v>489.7623565946564</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C46" t="n">
-        <v>192.3104186750432</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D46" t="n">
-        <v>192.3104186750432</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E46" t="n">
-        <v>192.3104186750432</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F46" t="n">
-        <v>192.3104186750432</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G46" t="n">
         <v>32.45932575975218</v>
@@ -7830,28 +7830,28 @@
         <v>361.2466016029501</v>
       </c>
       <c r="R46" t="n">
-        <v>361.2466016029501</v>
+        <v>261.5666648398646</v>
       </c>
       <c r="S46" t="n">
-        <v>361.2466016029501</v>
+        <v>261.5666648398646</v>
       </c>
       <c r="T46" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="U46" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="V46" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="W46" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X46" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y46" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
   </sheetData>
@@ -8060,19 +8060,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
         <v>133.9744074143302</v>
@@ -8303,16 +8303,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8534,16 +8534,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N9" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8774,13 +8774,13 @@
         <v>86.93262649026376</v>
       </c>
       <c r="L12" t="n">
-        <v>157.134285587881</v>
+        <v>267.4734388209744</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>455.0874215304798</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>86.93262649026376</v>
+        <v>228.2563757694028</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9023,7 +9023,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>244.1351504444137</v>
+        <v>73.77211287831324</v>
       </c>
       <c r="Q15" t="n">
         <v>99.73813450275543</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>97.05174705344739</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K21" t="n">
-        <v>86.93262649026377</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9491,16 +9491,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>380.7598033349564</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>142.0020905588914</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>99.73813450275543</v>
+        <v>99.73813450275541</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>97.05174705344739</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K24" t="n">
-        <v>86.93262649026377</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9728,16 +9728,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>455.0874215304797</v>
+        <v>380.7598033349565</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>244.1351504444137</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>99.73813450275543</v>
+        <v>99.73813450275541</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>97.05174705344739</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K27" t="n">
-        <v>86.93262649026377</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9965,13 +9965,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>380.7598033349564</v>
+        <v>447.9178485742653</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>73.77211287831324</v>
       </c>
       <c r="Q27" t="n">
         <v>99.73813450275543</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>97.05174705344739</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>86.93262649026377</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10202,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>270.4206501018626</v>
+        <v>63.84875129258624</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>97.05174705344739</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026376</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10439,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>203.2271928126415</v>
+        <v>380.7598033349564</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>97.05174705344739</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>86.93262649026377</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10676,16 +10676,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>455.0874215304797</v>
+        <v>63.8487512925867</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>244.1351504444137</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>99.73813450275543</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>63.84875129258627</v>
+        <v>203.2271928126415</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11059,10 +11059,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K42" t="n">
-        <v>86.93262649026376</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11150,13 +11150,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>455.0874215304797</v>
+        <v>203.2271928126415</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>215.0958621574522</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>99.73813450275543</v>
@@ -23257,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>277.3594708060343</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>271.0092187738671</v>
       </c>
       <c r="F11" t="n">
-        <v>1.1344737448091</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>414.7135041305339</v>
@@ -23336,28 +23336,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.0282495084215</v>
+        <v>119.1532823973843</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -23393,16 +23393,16 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>180.3074206884472</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>39.51921291389807</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23469,7 +23469,7 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T13" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.3046124576955</v>
@@ -23478,13 +23478,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>187.8398609411364</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23506,7 +23506,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>1.134473744809156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>414.7135041305339</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>65.73463391779347</v>
+        <v>139.6707797784944</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23551,16 +23551,16 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23579,7 +23579,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -23588,13 +23588,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.0282495084215</v>
+        <v>129.9292586476876</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I15" t="n">
-        <v>6.749557650556909</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,19 +23621,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -23642,7 +23642,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23673,7 +23673,7 @@
         <v>159.8772180037952</v>
       </c>
       <c r="I16" t="n">
-        <v>147.5019580580808</v>
+        <v>74.14019829714285</v>
       </c>
       <c r="J16" t="n">
         <v>74.67247646141476</v>
@@ -23712,13 +23712,13 @@
         <v>286.3046124576955</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>186.7332506408623</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23737,22 +23737,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>281.7656797870401</v>
       </c>
       <c r="G17" t="n">
-        <v>8.97193213363164</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>123.1319004959839</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,19 +23782,19 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23813,22 +23813,22 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>119.1476623497586</v>
       </c>
       <c r="H18" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23858,19 +23858,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>165.8272126914158</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -23879,7 +23879,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>134.7689832534498</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23898,7 +23898,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>39.51921291389806</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23949,16 +23949,16 @@
         <v>286.3046124576955</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>213.1612385756531</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23980,7 +23980,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>1.1344737448091</v>
       </c>
       <c r="G20" t="n">
         <v>414.7135041305339</v>
@@ -23989,7 +23989,7 @@
         <v>333.4403157157206</v>
       </c>
       <c r="I20" t="n">
-        <v>59.50558649212019</v>
+        <v>169.8012992936896</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,10 +24016,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T20" t="n">
         <v>220.5164804230398</v>
@@ -24034,7 +24034,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24047,16 +24047,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -24068,7 +24068,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24101,16 +24101,16 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>127.3438753774842</v>
       </c>
       <c r="W21" t="n">
-        <v>236.9372597192711</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>135.7839390550056</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>146.1875877666718</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24217,13 +24217,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>1.134473744809156</v>
+        <v>1.1344737448091</v>
       </c>
       <c r="G23" t="n">
-        <v>8.97193213363164</v>
+        <v>149.7868104116288</v>
       </c>
       <c r="H23" t="n">
-        <v>144.3189752705705</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24290,16 +24290,16 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>33.95674767626667</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>109.1906224126114</v>
@@ -24332,13 +24332,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>80.58358449827553</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S24" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>198.8939788055617</v>
+        <v>121.8746545296287</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24350,10 +24350,10 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.7266695472104</v>
+        <v>155.9080502076415</v>
       </c>
       <c r="H25" t="n">
         <v>159.8772180037952</v>
@@ -24414,7 +24414,7 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S25" t="n">
-        <v>73.74297596902483</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T25" t="n">
         <v>226.8162656893113</v>
@@ -24457,7 +24457,7 @@
         <v>1.134473744809156</v>
       </c>
       <c r="G26" t="n">
-        <v>414.7135041305339</v>
+        <v>231.0338756806401</v>
       </c>
       <c r="H26" t="n">
         <v>333.4403157157206</v>
@@ -24496,7 +24496,7 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T26" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.2985142370684</v>
@@ -24508,10 +24508,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>351.7729304615889</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24530,7 +24530,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -24569,13 +24569,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>80.58358449827553</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>84.69968995873803</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24584,7 +24584,7 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>242.344770414139</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H28" t="n">
-        <v>120.9008132556204</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I28" t="n">
         <v>147.5019580580808</v>
@@ -24660,10 +24660,10 @@
         <v>286.3046124576955</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>213.1612385756531</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24685,7 +24685,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24694,7 +24694,7 @@
         <v>1.134473744809156</v>
       </c>
       <c r="G29" t="n">
-        <v>8.97193213363164</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H29" t="n">
         <v>333.4403157157206</v>
@@ -24727,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T29" t="n">
-        <v>135.5774326700793</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U29" t="n">
         <v>251.2985142370684</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>249.0538868556085</v>
       </c>
     </row>
     <row r="30">
@@ -24758,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -24767,10 +24767,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>76.51755772272313</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>137.0282495084215</v>
@@ -24806,13 +24806,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>80.58358449827553</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S30" t="n">
-        <v>165.8272126914158</v>
+        <v>149.3704918745242</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24827,7 +24827,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24840,13 +24840,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>136.7968536786435</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24897,13 +24897,13 @@
         <v>286.3046124576955</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>152.3478956280993</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24925,13 +24925,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>388.9178755248313</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>8.97193213363164</v>
+        <v>91.67017886865636</v>
       </c>
       <c r="H32" t="n">
         <v>333.4403157157206</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>195.5929138346465</v>
@@ -24982,7 +24982,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25001,7 +25001,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -25010,7 +25010,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.4843112740192</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H33" t="n">
         <v>109.1906224126114</v>
@@ -25043,13 +25043,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S33" t="n">
         <v>165.8272126914158</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>66.31754283196094</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>159.8772180037952</v>
       </c>
       <c r="I34" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>74.67247646141476</v>
@@ -25125,13 +25125,13 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S34" t="n">
-        <v>219.4103988718534</v>
+        <v>41.41295384516823</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U34" t="n">
-        <v>187.6214750622409</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25162,10 +25162,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>1.1344737448091</v>
       </c>
       <c r="G35" t="n">
         <v>414.7135041305339</v>
@@ -25204,22 +25204,22 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U35" t="n">
-        <v>230.7054252959609</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>277.1046868984059</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25232,28 +25232,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>70.34224238427473</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,13 +25280,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>80.58358449827553</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>177.6454132141712</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25295,10 +25295,10 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.74163823402898</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25359,7 +25359,7 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S37" t="n">
         <v>219.4103988718534</v>
@@ -25368,13 +25368,13 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U37" t="n">
-        <v>286.3046124576955</v>
+        <v>247.3282077095206</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25393,22 +25393,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>260.7782413254114</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G38" t="n">
         <v>414.7135041305339</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I38" t="n">
         <v>187.7594695105699</v>
@@ -25438,10 +25438,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S38" t="n">
-        <v>172.497031342422</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T38" t="n">
         <v>220.5164804230398</v>
@@ -25450,16 +25450,16 @@
         <v>251.2985142370684</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25469,16 +25469,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>63.66489477687657</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25490,7 +25490,7 @@
         <v>109.1906224126114</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,13 +25517,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>80.58358449827553</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>67.80584269073783</v>
       </c>
       <c r="T39" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25538,7 +25538,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25566,7 +25566,7 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H40" t="n">
-        <v>120.6824273767249</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I40" t="n">
         <v>147.5019580580808</v>
@@ -25599,13 +25599,13 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S40" t="n">
-        <v>219.4103988718534</v>
+        <v>120.7272614763987</v>
       </c>
       <c r="T40" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>11.9132853847529</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25639,7 +25639,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>1.134473744809156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>414.7135041305339</v>
@@ -25678,10 +25678,10 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U41" t="n">
         <v>251.2985142370684</v>
@@ -25690,13 +25690,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>295.2723271820996</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25706,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -25718,16 +25718,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H42" t="n">
         <v>109.1906224126114</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>57.32191295679183</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25760,7 +25760,7 @@
         <v>165.8272126914158</v>
       </c>
       <c r="T42" t="n">
-        <v>134.4427495828818</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -25769,7 +25769,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H43" t="n">
         <v>159.8772180037952</v>
@@ -25833,13 +25833,13 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R43" t="n">
-        <v>165.4090611368575</v>
+        <v>66.72592374140289</v>
       </c>
       <c r="S43" t="n">
         <v>219.4103988718534</v>
       </c>
       <c r="T43" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.3046124576955</v>
@@ -25854,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>60.81191981453929</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25870,7 +25870,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25879,7 +25879,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>8.97193213363164</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H44" t="n">
         <v>333.4403157157206</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>94.89751612881739</v>
+        <v>43.83898575259795</v>
       </c>
       <c r="S44" t="n">
         <v>195.5929138346465</v>
@@ -25946,13 +25946,13 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>44.15676256702886</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -25991,19 +25991,19 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T45" t="n">
-        <v>73.75243753377873</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>9.474087561072338</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H46" t="n">
         <v>159.8772180037952</v>
@@ -26070,13 +26070,13 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R46" t="n">
-        <v>165.4090611368575</v>
+        <v>66.72592374140289</v>
       </c>
       <c r="S46" t="n">
         <v>219.4103988718534</v>
       </c>
       <c r="T46" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.3046124576955</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>465708.8603640179</v>
+        <v>465708.8603640178</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>465708.8603640178</v>
+        <v>465708.8603640175</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>465708.8603640178</v>
+        <v>465708.8603640179</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>465708.8603640178</v>
+        <v>465708.8603640181</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>465708.8603640181</v>
+        <v>465708.8603640177</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>465708.8603640179</v>
+        <v>465708.8603640178</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>465708.8603640181</v>
+        <v>465708.8603640178</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>574729.2389049982</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049983</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049983</v>
+        <v>574729.2389049984</v>
       </c>
       <c r="E2" t="n">
-        <v>299080.4558904492</v>
+        <v>299080.4558904493</v>
       </c>
       <c r="F2" t="n">
-        <v>299080.4558904492</v>
+        <v>299080.4558904493</v>
       </c>
       <c r="G2" t="n">
-        <v>299080.4558904491</v>
+        <v>299080.4558904495</v>
       </c>
       <c r="H2" t="n">
-        <v>299080.4558904492</v>
+        <v>299080.4558904493</v>
       </c>
       <c r="I2" t="n">
         <v>299080.4558904492</v>
       </c>
       <c r="J2" t="n">
-        <v>299080.4558904494</v>
+        <v>299080.4558904493</v>
       </c>
       <c r="K2" t="n">
-        <v>299080.4558904492</v>
+        <v>299080.4558904495</v>
       </c>
       <c r="L2" t="n">
         <v>299080.4558904495</v>
       </c>
       <c r="M2" t="n">
-        <v>299080.4558904493</v>
+        <v>299080.4558904494</v>
       </c>
       <c r="N2" t="n">
+        <v>299080.4558904496</v>
+      </c>
+      <c r="O2" t="n">
         <v>299080.4558904495</v>
       </c>
-      <c r="O2" t="n">
-        <v>299080.4558904491</v>
-      </c>
       <c r="P2" t="n">
-        <v>299080.4558904493</v>
+        <v>299080.4558904495</v>
       </c>
     </row>
     <row r="3">
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910621</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>41050.69786244789</v>
+        <v>41050.6978624479</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>295860.2172754403</v>
       </c>
       <c r="D4" t="n">
-        <v>295860.2172754403</v>
+        <v>295860.2172754402</v>
       </c>
       <c r="E4" t="n">
         <v>17394.13523139261</v>
@@ -26441,10 +26441,10 @@
         <v>17394.13523139261</v>
       </c>
       <c r="J4" t="n">
+        <v>17394.1352313926</v>
+      </c>
+      <c r="K4" t="n">
         <v>17394.13523139261</v>
-      </c>
-      <c r="K4" t="n">
-        <v>17394.1352313926</v>
       </c>
       <c r="L4" t="n">
         <v>17394.13523139261</v>
@@ -26456,7 +26456,7 @@
         <v>17394.13523139261</v>
       </c>
       <c r="O4" t="n">
-        <v>17394.13523139261</v>
+        <v>17394.1352313926</v>
       </c>
       <c r="P4" t="n">
         <v>17394.13523139261</v>
@@ -26478,7 +26478,7 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375756</v>
       </c>
       <c r="F5" t="n">
         <v>27864.35291375756</v>
@@ -26487,10 +26487,10 @@
         <v>27864.35291375756</v>
       </c>
       <c r="H5" t="n">
-        <v>27864.35291375756</v>
+        <v>27864.35291375757</v>
       </c>
       <c r="I5" t="n">
-        <v>27864.35291375756</v>
+        <v>27864.35291375757</v>
       </c>
       <c r="J5" t="n">
         <v>27864.35291375756</v>
@@ -26502,7 +26502,7 @@
         <v>27864.35291375756</v>
       </c>
       <c r="M5" t="n">
-        <v>27864.35291375756</v>
+        <v>27864.35291375757</v>
       </c>
       <c r="N5" t="n">
         <v>27864.35291375756</v>
@@ -26524,46 +26524,46 @@
         <v>149818.3213342485</v>
       </c>
       <c r="C6" t="n">
-        <v>230587.7528657966</v>
+        <v>230587.7528657963</v>
       </c>
       <c r="D6" t="n">
-        <v>230587.7528657963</v>
+        <v>230587.7528657965</v>
       </c>
       <c r="E6" t="n">
-        <v>77037.19822667558</v>
+        <v>85897.33768071473</v>
       </c>
       <c r="F6" t="n">
-        <v>243977.3683519222</v>
+        <v>252837.5078059614</v>
       </c>
       <c r="G6" t="n">
-        <v>243977.3683519222</v>
+        <v>252837.5078059616</v>
       </c>
       <c r="H6" t="n">
-        <v>243977.3683519222</v>
+        <v>252837.5078059614</v>
       </c>
       <c r="I6" t="n">
-        <v>243977.3683519222</v>
+        <v>252837.5078059613</v>
       </c>
       <c r="J6" t="n">
-        <v>180917.4257528163</v>
+        <v>189777.5652068552</v>
       </c>
       <c r="K6" t="n">
-        <v>243977.3683519222</v>
+        <v>252837.5078059616</v>
       </c>
       <c r="L6" t="n">
-        <v>243977.3683519225</v>
+        <v>252837.5078059616</v>
       </c>
       <c r="M6" t="n">
-        <v>202926.6704894745</v>
+        <v>211786.8099435137</v>
       </c>
       <c r="N6" t="n">
-        <v>243977.3683519226</v>
+        <v>252837.5078059617</v>
       </c>
       <c r="O6" t="n">
-        <v>243977.3683519221</v>
+        <v>252837.5078059616</v>
       </c>
       <c r="P6" t="n">
-        <v>243977.3683519224</v>
+        <v>252837.5078059616</v>
       </c>
     </row>
   </sheetData>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>357.6695089190338</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>166.4667994482748</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,10 +27432,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27457,10 +27457,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27472,13 +27472,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27526,7 +27526,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>60.50207587874957</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>59.05078607424915</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27557,7 +27557,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>44.53299916777314</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
@@ -27578,7 +27578,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27621,22 +27621,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>348.4813272950487</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>158.9572168654546</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27694,28 +27694,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>104.3983415011523</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,19 +27745,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>237.0998240912329</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27779,10 +27779,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E7" t="n">
-        <v>38.23792762219048</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27800,7 +27800,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27815,7 +27815,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27858,22 +27858,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>331.7898455187701</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>333.2456655029306</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27912,7 +27912,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27931,16 +27931,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -27979,19 +27979,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>85.56267508295639</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -28000,7 +28000,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>4.829496336780863</v>
       </c>
     </row>
     <row r="10">
@@ -28013,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>59.05078607424915</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>178.3269633122123</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5892333846011533</v>
+        <v>0.5892333846011535</v>
       </c>
       <c r="H20" t="n">
-        <v>6.034486400046562</v>
+        <v>6.034486400046565</v>
       </c>
       <c r="I20" t="n">
-        <v>22.71642005983598</v>
+        <v>22.71642005983599</v>
       </c>
       <c r="J20" t="n">
-        <v>50.01044697629218</v>
+        <v>50.0104469762922</v>
       </c>
       <c r="K20" t="n">
-        <v>74.952696146459</v>
+        <v>74.95269614645905</v>
       </c>
       <c r="L20" t="n">
-        <v>92.98544734044657</v>
+        <v>92.98544734044661</v>
       </c>
       <c r="M20" t="n">
-        <v>103.4642265438473</v>
+        <v>103.4642265438474</v>
       </c>
       <c r="N20" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O20" t="n">
-        <v>99.27919642971764</v>
+        <v>99.27919642971769</v>
       </c>
       <c r="P20" t="n">
-        <v>84.73249724737666</v>
+        <v>84.73249724737668</v>
       </c>
       <c r="Q20" t="n">
-        <v>63.63057666134784</v>
+        <v>63.63057666134786</v>
       </c>
       <c r="R20" t="n">
-        <v>37.01343159545223</v>
+        <v>37.01343159545224</v>
       </c>
       <c r="S20" t="n">
-        <v>13.42715575159879</v>
+        <v>13.4271557515988</v>
       </c>
       <c r="T20" t="n">
-        <v>2.57936914109155</v>
+        <v>2.579369141091551</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04713867076809225</v>
+        <v>0.04713867076809227</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,43 +32542,43 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3152676547891928</v>
+        <v>0.3152676547891929</v>
       </c>
       <c r="H21" t="n">
-        <v>3.044821823885099</v>
+        <v>3.0448218238851</v>
       </c>
       <c r="I21" t="n">
-        <v>10.85461004427703</v>
+        <v>10.85461004427704</v>
       </c>
       <c r="J21" t="n">
-        <v>29.78587961321931</v>
+        <v>29.78587961321932</v>
       </c>
       <c r="K21" t="n">
-        <v>50.90881248409522</v>
+        <v>50.90881248409524</v>
       </c>
       <c r="L21" t="n">
-        <v>68.45318092253943</v>
+        <v>68.45318092253946</v>
       </c>
       <c r="M21" t="n">
-        <v>79.88163340864764</v>
+        <v>79.88163340864767</v>
       </c>
       <c r="N21" t="n">
-        <v>81.99586254975588</v>
+        <v>81.99586254975593</v>
       </c>
       <c r="O21" t="n">
-        <v>75.01019504100587</v>
+        <v>75.0101950410059</v>
       </c>
       <c r="P21" t="n">
-        <v>60.202294536017</v>
+        <v>60.20229453601702</v>
       </c>
       <c r="Q21" t="n">
-        <v>40.24363958326609</v>
+        <v>40.2436395832661</v>
       </c>
       <c r="R21" t="n">
-        <v>19.57424965436761</v>
+        <v>19.57424965436762</v>
       </c>
       <c r="S21" t="n">
-        <v>5.855958412422064</v>
+        <v>5.855958412422066</v>
       </c>
       <c r="T21" t="n">
         <v>1.270749889259948</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2643098112483453</v>
+        <v>0.2643098112483455</v>
       </c>
       <c r="H22" t="n">
-        <v>2.349954503644381</v>
+        <v>2.349954503644382</v>
       </c>
       <c r="I22" t="n">
-        <v>7.948516869177515</v>
+        <v>7.948516869177519</v>
       </c>
       <c r="J22" t="n">
-        <v>18.68670365525801</v>
+        <v>18.68670365525802</v>
       </c>
       <c r="K22" t="n">
-        <v>30.70799443412594</v>
+        <v>30.70799443412595</v>
       </c>
       <c r="L22" t="n">
-        <v>39.29566048323128</v>
+        <v>39.29566048323129</v>
       </c>
       <c r="M22" t="n">
-        <v>41.43176432141108</v>
+        <v>41.43176432141109</v>
       </c>
       <c r="N22" t="n">
-        <v>40.44660957039455</v>
+        <v>40.44660957039456</v>
       </c>
       <c r="O22" t="n">
-        <v>37.35899041172068</v>
+        <v>37.3589904117207</v>
       </c>
       <c r="P22" t="n">
-        <v>31.96707026225441</v>
+        <v>31.96707026225442</v>
       </c>
       <c r="Q22" t="n">
         <v>22.13234246735009</v>
       </c>
       <c r="R22" t="n">
-        <v>11.88433024031196</v>
+        <v>11.88433024031197</v>
       </c>
       <c r="S22" t="n">
-        <v>4.606199165118889</v>
+        <v>4.606199165118891</v>
       </c>
       <c r="T22" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01441689879536431</v>
+        <v>0.01441689879536432</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5892333846011533</v>
+        <v>0.5892333846011535</v>
       </c>
       <c r="H23" t="n">
-        <v>6.034486400046562</v>
+        <v>6.034486400046565</v>
       </c>
       <c r="I23" t="n">
-        <v>22.71642005983598</v>
+        <v>22.71642005983599</v>
       </c>
       <c r="J23" t="n">
-        <v>50.01044697629218</v>
+        <v>50.0104469762922</v>
       </c>
       <c r="K23" t="n">
-        <v>74.952696146459</v>
+        <v>74.95269614645905</v>
       </c>
       <c r="L23" t="n">
-        <v>92.98544734044657</v>
+        <v>92.98544734044661</v>
       </c>
       <c r="M23" t="n">
-        <v>103.4642265438473</v>
+        <v>103.4642265438474</v>
       </c>
       <c r="N23" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O23" t="n">
-        <v>99.27919642971764</v>
+        <v>99.27919642971769</v>
       </c>
       <c r="P23" t="n">
-        <v>84.73249724737666</v>
+        <v>84.73249724737668</v>
       </c>
       <c r="Q23" t="n">
-        <v>63.63057666134784</v>
+        <v>63.63057666134786</v>
       </c>
       <c r="R23" t="n">
-        <v>37.01343159545223</v>
+        <v>37.01343159545224</v>
       </c>
       <c r="S23" t="n">
-        <v>13.42715575159879</v>
+        <v>13.4271557515988</v>
       </c>
       <c r="T23" t="n">
-        <v>2.57936914109155</v>
+        <v>2.579369141091551</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04713867076809225</v>
+        <v>0.04713867076809227</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,43 +32779,43 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3152676547891928</v>
+        <v>0.3152676547891929</v>
       </c>
       <c r="H24" t="n">
-        <v>3.044821823885099</v>
+        <v>3.0448218238851</v>
       </c>
       <c r="I24" t="n">
-        <v>10.85461004427703</v>
+        <v>10.85461004427704</v>
       </c>
       <c r="J24" t="n">
-        <v>29.78587961321931</v>
+        <v>29.78587961321932</v>
       </c>
       <c r="K24" t="n">
-        <v>50.90881248409522</v>
+        <v>50.90881248409524</v>
       </c>
       <c r="L24" t="n">
-        <v>68.45318092253943</v>
+        <v>68.45318092253946</v>
       </c>
       <c r="M24" t="n">
-        <v>79.88163340864764</v>
+        <v>79.88163340864767</v>
       </c>
       <c r="N24" t="n">
-        <v>81.99586254975588</v>
+        <v>81.99586254975593</v>
       </c>
       <c r="O24" t="n">
-        <v>75.01019504100587</v>
+        <v>75.0101950410059</v>
       </c>
       <c r="P24" t="n">
-        <v>60.202294536017</v>
+        <v>60.20229453601702</v>
       </c>
       <c r="Q24" t="n">
-        <v>40.24363958326609</v>
+        <v>40.2436395832661</v>
       </c>
       <c r="R24" t="n">
-        <v>19.57424965436761</v>
+        <v>19.57424965436762</v>
       </c>
       <c r="S24" t="n">
-        <v>5.855958412422064</v>
+        <v>5.855958412422066</v>
       </c>
       <c r="T24" t="n">
         <v>1.270749889259948</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2643098112483453</v>
+        <v>0.2643098112483455</v>
       </c>
       <c r="H25" t="n">
-        <v>2.349954503644381</v>
+        <v>2.349954503644382</v>
       </c>
       <c r="I25" t="n">
-        <v>7.948516869177515</v>
+        <v>7.948516869177519</v>
       </c>
       <c r="J25" t="n">
-        <v>18.68670365525801</v>
+        <v>18.68670365525802</v>
       </c>
       <c r="K25" t="n">
-        <v>30.70799443412594</v>
+        <v>30.70799443412595</v>
       </c>
       <c r="L25" t="n">
-        <v>39.29566048323128</v>
+        <v>39.29566048323129</v>
       </c>
       <c r="M25" t="n">
-        <v>41.43176432141108</v>
+        <v>41.43176432141109</v>
       </c>
       <c r="N25" t="n">
-        <v>40.44660957039455</v>
+        <v>40.44660957039456</v>
       </c>
       <c r="O25" t="n">
-        <v>37.35899041172068</v>
+        <v>37.3589904117207</v>
       </c>
       <c r="P25" t="n">
-        <v>31.96707026225441</v>
+        <v>31.96707026225442</v>
       </c>
       <c r="Q25" t="n">
         <v>22.13234246735009</v>
       </c>
       <c r="R25" t="n">
-        <v>11.88433024031196</v>
+        <v>11.88433024031197</v>
       </c>
       <c r="S25" t="n">
-        <v>4.606199165118889</v>
+        <v>4.606199165118891</v>
       </c>
       <c r="T25" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01441689879536431</v>
+        <v>0.01441689879536432</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,22 +32937,22 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5892333846011533</v>
+        <v>0.5892333846011534</v>
       </c>
       <c r="H26" t="n">
-        <v>6.034486400046562</v>
+        <v>6.034486400046564</v>
       </c>
       <c r="I26" t="n">
-        <v>22.71642005983598</v>
+        <v>22.71642005983599</v>
       </c>
       <c r="J26" t="n">
-        <v>50.01044697629218</v>
+        <v>50.01044697629219</v>
       </c>
       <c r="K26" t="n">
-        <v>74.952696146459</v>
+        <v>74.95269614645902</v>
       </c>
       <c r="L26" t="n">
-        <v>92.98544734044657</v>
+        <v>92.9854473404466</v>
       </c>
       <c r="M26" t="n">
         <v>103.4642265438473</v>
@@ -32961,25 +32961,25 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O26" t="n">
-        <v>99.27919642971764</v>
+        <v>99.27919642971766</v>
       </c>
       <c r="P26" t="n">
-        <v>84.73249724737666</v>
+        <v>84.73249724737667</v>
       </c>
       <c r="Q26" t="n">
-        <v>63.63057666134784</v>
+        <v>63.63057666134785</v>
       </c>
       <c r="R26" t="n">
         <v>37.01343159545223</v>
       </c>
       <c r="S26" t="n">
-        <v>13.42715575159879</v>
+        <v>13.4271557515988</v>
       </c>
       <c r="T26" t="n">
         <v>2.57936914109155</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04713867076809225</v>
+        <v>0.04713867076809226</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33019,7 +33019,7 @@
         <v>0.3152676547891928</v>
       </c>
       <c r="H27" t="n">
-        <v>3.044821823885099</v>
+        <v>3.0448218238851</v>
       </c>
       <c r="I27" t="n">
         <v>10.85461004427703</v>
@@ -33028,22 +33028,22 @@
         <v>29.78587961321931</v>
       </c>
       <c r="K27" t="n">
-        <v>50.90881248409522</v>
+        <v>50.90881248409524</v>
       </c>
       <c r="L27" t="n">
-        <v>68.45318092253943</v>
+        <v>68.45318092253945</v>
       </c>
       <c r="M27" t="n">
-        <v>79.88163340864764</v>
+        <v>79.88163340864766</v>
       </c>
       <c r="N27" t="n">
-        <v>81.99586254975588</v>
+        <v>81.99586254975591</v>
       </c>
       <c r="O27" t="n">
-        <v>75.01019504100587</v>
+        <v>75.01019504100589</v>
       </c>
       <c r="P27" t="n">
-        <v>60.202294536017</v>
+        <v>60.20229453601701</v>
       </c>
       <c r="Q27" t="n">
         <v>40.24363958326609</v>
@@ -33052,7 +33052,7 @@
         <v>19.57424965436761</v>
       </c>
       <c r="S27" t="n">
-        <v>5.855958412422064</v>
+        <v>5.855958412422065</v>
       </c>
       <c r="T27" t="n">
         <v>1.270749889259948</v>
@@ -33095,34 +33095,34 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2643098112483453</v>
+        <v>0.2643098112483454</v>
       </c>
       <c r="H28" t="n">
-        <v>2.349954503644381</v>
+        <v>2.349954503644382</v>
       </c>
       <c r="I28" t="n">
-        <v>7.948516869177515</v>
+        <v>7.948516869177517</v>
       </c>
       <c r="J28" t="n">
-        <v>18.68670365525801</v>
+        <v>18.68670365525802</v>
       </c>
       <c r="K28" t="n">
         <v>30.70799443412594</v>
       </c>
       <c r="L28" t="n">
-        <v>39.29566048323128</v>
+        <v>39.29566048323129</v>
       </c>
       <c r="M28" t="n">
-        <v>41.43176432141108</v>
+        <v>41.43176432141109</v>
       </c>
       <c r="N28" t="n">
-        <v>40.44660957039455</v>
+        <v>40.44660957039456</v>
       </c>
       <c r="O28" t="n">
-        <v>37.35899041172068</v>
+        <v>37.35899041172069</v>
       </c>
       <c r="P28" t="n">
-        <v>31.96707026225441</v>
+        <v>31.96707026225442</v>
       </c>
       <c r="Q28" t="n">
         <v>22.13234246735009</v>
@@ -33131,7 +33131,7 @@
         <v>11.88433024031196</v>
       </c>
       <c r="S28" t="n">
-        <v>4.606199165118889</v>
+        <v>4.60619916511889</v>
       </c>
       <c r="T28" t="n">
         <v>1.129323738970203</v>
@@ -33174,22 +33174,22 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5892333846011533</v>
+        <v>0.5892333846011534</v>
       </c>
       <c r="H29" t="n">
-        <v>6.034486400046562</v>
+        <v>6.034486400046564</v>
       </c>
       <c r="I29" t="n">
-        <v>22.71642005983598</v>
+        <v>22.71642005983599</v>
       </c>
       <c r="J29" t="n">
-        <v>50.01044697629218</v>
+        <v>50.01044697629219</v>
       </c>
       <c r="K29" t="n">
-        <v>74.952696146459</v>
+        <v>74.95269614645902</v>
       </c>
       <c r="L29" t="n">
-        <v>92.98544734044657</v>
+        <v>92.9854473404466</v>
       </c>
       <c r="M29" t="n">
         <v>103.4642265438473</v>
@@ -33198,25 +33198,25 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O29" t="n">
-        <v>99.27919642971764</v>
+        <v>99.27919642971766</v>
       </c>
       <c r="P29" t="n">
-        <v>84.73249724737666</v>
+        <v>84.73249724737667</v>
       </c>
       <c r="Q29" t="n">
-        <v>63.63057666134784</v>
+        <v>63.63057666134785</v>
       </c>
       <c r="R29" t="n">
         <v>37.01343159545223</v>
       </c>
       <c r="S29" t="n">
-        <v>13.42715575159879</v>
+        <v>13.4271557515988</v>
       </c>
       <c r="T29" t="n">
         <v>2.57936914109155</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04713867076809225</v>
+        <v>0.04713867076809226</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33256,7 +33256,7 @@
         <v>0.3152676547891928</v>
       </c>
       <c r="H30" t="n">
-        <v>3.044821823885099</v>
+        <v>3.0448218238851</v>
       </c>
       <c r="I30" t="n">
         <v>10.85461004427703</v>
@@ -33265,22 +33265,22 @@
         <v>29.78587961321931</v>
       </c>
       <c r="K30" t="n">
-        <v>50.90881248409522</v>
+        <v>50.90881248409524</v>
       </c>
       <c r="L30" t="n">
-        <v>68.45318092253943</v>
+        <v>68.45318092253945</v>
       </c>
       <c r="M30" t="n">
-        <v>79.88163340864764</v>
+        <v>79.88163340864766</v>
       </c>
       <c r="N30" t="n">
-        <v>81.99586254975588</v>
+        <v>81.99586254975591</v>
       </c>
       <c r="O30" t="n">
-        <v>75.01019504100587</v>
+        <v>75.01019504100589</v>
       </c>
       <c r="P30" t="n">
-        <v>60.202294536017</v>
+        <v>60.20229453601701</v>
       </c>
       <c r="Q30" t="n">
         <v>40.24363958326609</v>
@@ -33289,7 +33289,7 @@
         <v>19.57424965436761</v>
       </c>
       <c r="S30" t="n">
-        <v>5.855958412422064</v>
+        <v>5.855958412422065</v>
       </c>
       <c r="T30" t="n">
         <v>1.270749889259948</v>
@@ -33332,34 +33332,34 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2643098112483453</v>
+        <v>0.2643098112483454</v>
       </c>
       <c r="H31" t="n">
-        <v>2.349954503644381</v>
+        <v>2.349954503644382</v>
       </c>
       <c r="I31" t="n">
-        <v>7.948516869177515</v>
+        <v>7.948516869177517</v>
       </c>
       <c r="J31" t="n">
-        <v>18.68670365525801</v>
+        <v>18.68670365525802</v>
       </c>
       <c r="K31" t="n">
         <v>30.70799443412594</v>
       </c>
       <c r="L31" t="n">
-        <v>39.29566048323128</v>
+        <v>39.29566048323129</v>
       </c>
       <c r="M31" t="n">
-        <v>41.43176432141108</v>
+        <v>41.43176432141109</v>
       </c>
       <c r="N31" t="n">
-        <v>40.44660957039455</v>
+        <v>40.44660957039456</v>
       </c>
       <c r="O31" t="n">
-        <v>37.35899041172068</v>
+        <v>37.35899041172069</v>
       </c>
       <c r="P31" t="n">
-        <v>31.96707026225441</v>
+        <v>31.96707026225442</v>
       </c>
       <c r="Q31" t="n">
         <v>22.13234246735009</v>
@@ -33368,7 +33368,7 @@
         <v>11.88433024031196</v>
       </c>
       <c r="S31" t="n">
-        <v>4.606199165118889</v>
+        <v>4.60619916511889</v>
       </c>
       <c r="T31" t="n">
         <v>1.129323738970203</v>
@@ -33411,22 +33411,22 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5892333846011533</v>
+        <v>0.5892333846011534</v>
       </c>
       <c r="H32" t="n">
-        <v>6.034486400046562</v>
+        <v>6.034486400046564</v>
       </c>
       <c r="I32" t="n">
-        <v>22.71642005983598</v>
+        <v>22.71642005983599</v>
       </c>
       <c r="J32" t="n">
-        <v>50.01044697629218</v>
+        <v>50.01044697629219</v>
       </c>
       <c r="K32" t="n">
-        <v>74.952696146459</v>
+        <v>74.95269614645902</v>
       </c>
       <c r="L32" t="n">
-        <v>92.98544734044657</v>
+        <v>92.9854473404466</v>
       </c>
       <c r="M32" t="n">
         <v>103.4642265438473</v>
@@ -33435,25 +33435,25 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O32" t="n">
-        <v>99.27919642971764</v>
+        <v>99.27919642971766</v>
       </c>
       <c r="P32" t="n">
-        <v>84.73249724737666</v>
+        <v>84.73249724737667</v>
       </c>
       <c r="Q32" t="n">
-        <v>63.63057666134784</v>
+        <v>63.63057666134785</v>
       </c>
       <c r="R32" t="n">
         <v>37.01343159545223</v>
       </c>
       <c r="S32" t="n">
-        <v>13.42715575159879</v>
+        <v>13.4271557515988</v>
       </c>
       <c r="T32" t="n">
         <v>2.57936914109155</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04713867076809225</v>
+        <v>0.04713867076809226</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33493,7 +33493,7 @@
         <v>0.3152676547891928</v>
       </c>
       <c r="H33" t="n">
-        <v>3.044821823885099</v>
+        <v>3.0448218238851</v>
       </c>
       <c r="I33" t="n">
         <v>10.85461004427703</v>
@@ -33502,22 +33502,22 @@
         <v>29.78587961321931</v>
       </c>
       <c r="K33" t="n">
-        <v>50.90881248409522</v>
+        <v>50.90881248409524</v>
       </c>
       <c r="L33" t="n">
-        <v>68.45318092253943</v>
+        <v>68.45318092253945</v>
       </c>
       <c r="M33" t="n">
-        <v>79.88163340864764</v>
+        <v>79.88163340864766</v>
       </c>
       <c r="N33" t="n">
-        <v>81.99586254975588</v>
+        <v>81.99586254975591</v>
       </c>
       <c r="O33" t="n">
-        <v>75.01019504100587</v>
+        <v>75.01019504100589</v>
       </c>
       <c r="P33" t="n">
-        <v>60.202294536017</v>
+        <v>60.20229453601701</v>
       </c>
       <c r="Q33" t="n">
         <v>40.24363958326609</v>
@@ -33526,7 +33526,7 @@
         <v>19.57424965436761</v>
       </c>
       <c r="S33" t="n">
-        <v>5.855958412422064</v>
+        <v>5.855958412422065</v>
       </c>
       <c r="T33" t="n">
         <v>1.270749889259948</v>
@@ -33569,34 +33569,34 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2643098112483453</v>
+        <v>0.2643098112483454</v>
       </c>
       <c r="H34" t="n">
-        <v>2.349954503644381</v>
+        <v>2.349954503644382</v>
       </c>
       <c r="I34" t="n">
-        <v>7.948516869177515</v>
+        <v>7.948516869177517</v>
       </c>
       <c r="J34" t="n">
-        <v>18.68670365525801</v>
+        <v>18.68670365525802</v>
       </c>
       <c r="K34" t="n">
         <v>30.70799443412594</v>
       </c>
       <c r="L34" t="n">
-        <v>39.29566048323128</v>
+        <v>39.29566048323129</v>
       </c>
       <c r="M34" t="n">
-        <v>41.43176432141108</v>
+        <v>41.43176432141109</v>
       </c>
       <c r="N34" t="n">
-        <v>40.44660957039455</v>
+        <v>40.44660957039456</v>
       </c>
       <c r="O34" t="n">
-        <v>37.35899041172068</v>
+        <v>37.35899041172069</v>
       </c>
       <c r="P34" t="n">
-        <v>31.96707026225441</v>
+        <v>31.96707026225442</v>
       </c>
       <c r="Q34" t="n">
         <v>22.13234246735009</v>
@@ -33605,7 +33605,7 @@
         <v>11.88433024031196</v>
       </c>
       <c r="S34" t="n">
-        <v>4.606199165118889</v>
+        <v>4.60619916511889</v>
       </c>
       <c r="T34" t="n">
         <v>1.129323738970203</v>
@@ -33648,22 +33648,22 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5892333846011533</v>
+        <v>0.5892333846011534</v>
       </c>
       <c r="H35" t="n">
-        <v>6.034486400046562</v>
+        <v>6.034486400046564</v>
       </c>
       <c r="I35" t="n">
-        <v>22.71642005983598</v>
+        <v>22.71642005983599</v>
       </c>
       <c r="J35" t="n">
-        <v>50.01044697629218</v>
+        <v>50.01044697629219</v>
       </c>
       <c r="K35" t="n">
-        <v>74.952696146459</v>
+        <v>74.95269614645902</v>
       </c>
       <c r="L35" t="n">
-        <v>92.98544734044657</v>
+        <v>92.9854473404466</v>
       </c>
       <c r="M35" t="n">
         <v>103.4642265438473</v>
@@ -33672,25 +33672,25 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O35" t="n">
-        <v>99.27919642971764</v>
+        <v>99.27919642971766</v>
       </c>
       <c r="P35" t="n">
-        <v>84.73249724737666</v>
+        <v>84.73249724737667</v>
       </c>
       <c r="Q35" t="n">
-        <v>63.63057666134784</v>
+        <v>63.63057666134785</v>
       </c>
       <c r="R35" t="n">
         <v>37.01343159545223</v>
       </c>
       <c r="S35" t="n">
-        <v>13.42715575159879</v>
+        <v>13.4271557515988</v>
       </c>
       <c r="T35" t="n">
         <v>2.57936914109155</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04713867076809225</v>
+        <v>0.04713867076809226</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33730,7 +33730,7 @@
         <v>0.3152676547891928</v>
       </c>
       <c r="H36" t="n">
-        <v>3.044821823885099</v>
+        <v>3.0448218238851</v>
       </c>
       <c r="I36" t="n">
         <v>10.85461004427703</v>
@@ -33739,22 +33739,22 @@
         <v>29.78587961321931</v>
       </c>
       <c r="K36" t="n">
-        <v>50.90881248409522</v>
+        <v>50.90881248409524</v>
       </c>
       <c r="L36" t="n">
-        <v>68.45318092253943</v>
+        <v>68.45318092253945</v>
       </c>
       <c r="M36" t="n">
-        <v>79.88163340864764</v>
+        <v>79.88163340864766</v>
       </c>
       <c r="N36" t="n">
-        <v>81.99586254975588</v>
+        <v>81.99586254975591</v>
       </c>
       <c r="O36" t="n">
-        <v>75.01019504100587</v>
+        <v>75.01019504100589</v>
       </c>
       <c r="P36" t="n">
-        <v>60.202294536017</v>
+        <v>60.20229453601701</v>
       </c>
       <c r="Q36" t="n">
         <v>40.24363958326609</v>
@@ -33763,7 +33763,7 @@
         <v>19.57424965436761</v>
       </c>
       <c r="S36" t="n">
-        <v>5.855958412422064</v>
+        <v>5.855958412422065</v>
       </c>
       <c r="T36" t="n">
         <v>1.270749889259948</v>
@@ -33806,34 +33806,34 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2643098112483453</v>
+        <v>0.2643098112483454</v>
       </c>
       <c r="H37" t="n">
-        <v>2.349954503644381</v>
+        <v>2.349954503644382</v>
       </c>
       <c r="I37" t="n">
-        <v>7.948516869177515</v>
+        <v>7.948516869177517</v>
       </c>
       <c r="J37" t="n">
-        <v>18.68670365525801</v>
+        <v>18.68670365525802</v>
       </c>
       <c r="K37" t="n">
         <v>30.70799443412594</v>
       </c>
       <c r="L37" t="n">
-        <v>39.29566048323128</v>
+        <v>39.29566048323129</v>
       </c>
       <c r="M37" t="n">
-        <v>41.43176432141108</v>
+        <v>41.43176432141109</v>
       </c>
       <c r="N37" t="n">
-        <v>40.44660957039455</v>
+        <v>40.44660957039456</v>
       </c>
       <c r="O37" t="n">
-        <v>37.35899041172068</v>
+        <v>37.35899041172069</v>
       </c>
       <c r="P37" t="n">
-        <v>31.96707026225441</v>
+        <v>31.96707026225442</v>
       </c>
       <c r="Q37" t="n">
         <v>22.13234246735009</v>
@@ -33842,7 +33842,7 @@
         <v>11.88433024031196</v>
       </c>
       <c r="S37" t="n">
-        <v>4.606199165118889</v>
+        <v>4.60619916511889</v>
       </c>
       <c r="T37" t="n">
         <v>1.129323738970203</v>
@@ -33885,22 +33885,22 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5892333846011533</v>
+        <v>0.5892333846011534</v>
       </c>
       <c r="H38" t="n">
-        <v>6.034486400046562</v>
+        <v>6.034486400046564</v>
       </c>
       <c r="I38" t="n">
-        <v>22.71642005983598</v>
+        <v>22.71642005983599</v>
       </c>
       <c r="J38" t="n">
-        <v>50.01044697629218</v>
+        <v>50.01044697629219</v>
       </c>
       <c r="K38" t="n">
-        <v>74.952696146459</v>
+        <v>74.95269614645902</v>
       </c>
       <c r="L38" t="n">
-        <v>92.98544734044657</v>
+        <v>92.9854473404466</v>
       </c>
       <c r="M38" t="n">
         <v>103.4642265438473</v>
@@ -33909,25 +33909,25 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O38" t="n">
-        <v>99.27919642971764</v>
+        <v>99.27919642971766</v>
       </c>
       <c r="P38" t="n">
-        <v>84.73249724737666</v>
+        <v>84.73249724737667</v>
       </c>
       <c r="Q38" t="n">
-        <v>63.63057666134784</v>
+        <v>63.63057666134785</v>
       </c>
       <c r="R38" t="n">
         <v>37.01343159545223</v>
       </c>
       <c r="S38" t="n">
-        <v>13.42715575159879</v>
+        <v>13.4271557515988</v>
       </c>
       <c r="T38" t="n">
         <v>2.57936914109155</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04713867076809225</v>
+        <v>0.04713867076809226</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,7 +33967,7 @@
         <v>0.3152676547891928</v>
       </c>
       <c r="H39" t="n">
-        <v>3.044821823885099</v>
+        <v>3.0448218238851</v>
       </c>
       <c r="I39" t="n">
         <v>10.85461004427703</v>
@@ -33976,22 +33976,22 @@
         <v>29.78587961321931</v>
       </c>
       <c r="K39" t="n">
-        <v>50.90881248409522</v>
+        <v>50.90881248409524</v>
       </c>
       <c r="L39" t="n">
-        <v>68.45318092253943</v>
+        <v>68.45318092253945</v>
       </c>
       <c r="M39" t="n">
-        <v>79.88163340864764</v>
+        <v>79.88163340864766</v>
       </c>
       <c r="N39" t="n">
-        <v>81.99586254975588</v>
+        <v>81.99586254975591</v>
       </c>
       <c r="O39" t="n">
-        <v>75.01019504100587</v>
+        <v>75.01019504100589</v>
       </c>
       <c r="P39" t="n">
-        <v>60.202294536017</v>
+        <v>60.20229453601701</v>
       </c>
       <c r="Q39" t="n">
         <v>40.24363958326609</v>
@@ -34000,7 +34000,7 @@
         <v>19.57424965436761</v>
       </c>
       <c r="S39" t="n">
-        <v>5.855958412422064</v>
+        <v>5.855958412422065</v>
       </c>
       <c r="T39" t="n">
         <v>1.270749889259948</v>
@@ -34043,34 +34043,34 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2643098112483453</v>
+        <v>0.2643098112483454</v>
       </c>
       <c r="H40" t="n">
-        <v>2.349954503644381</v>
+        <v>2.349954503644382</v>
       </c>
       <c r="I40" t="n">
-        <v>7.948516869177515</v>
+        <v>7.948516869177517</v>
       </c>
       <c r="J40" t="n">
-        <v>18.68670365525801</v>
+        <v>18.68670365525802</v>
       </c>
       <c r="K40" t="n">
         <v>30.70799443412594</v>
       </c>
       <c r="L40" t="n">
-        <v>39.29566048323128</v>
+        <v>39.29566048323129</v>
       </c>
       <c r="M40" t="n">
-        <v>41.43176432141108</v>
+        <v>41.43176432141109</v>
       </c>
       <c r="N40" t="n">
-        <v>40.44660957039455</v>
+        <v>40.44660957039456</v>
       </c>
       <c r="O40" t="n">
-        <v>37.35899041172068</v>
+        <v>37.35899041172069</v>
       </c>
       <c r="P40" t="n">
-        <v>31.96707026225441</v>
+        <v>31.96707026225442</v>
       </c>
       <c r="Q40" t="n">
         <v>22.13234246735009</v>
@@ -34079,7 +34079,7 @@
         <v>11.88433024031196</v>
       </c>
       <c r="S40" t="n">
-        <v>4.606199165118889</v>
+        <v>4.60619916511889</v>
       </c>
       <c r="T40" t="n">
         <v>1.129323738970203</v>
@@ -34710,7 +34710,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
         <v>150.7019698410586</v>
@@ -34780,19 +34780,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -35023,16 +35023,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35254,16 +35254,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
+        <v>91.0829537758999</v>
+      </c>
+      <c r="N9" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N9" t="n">
-        <v>55.51629994036225</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35272,7 +35272,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35494,7 +35494,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>87.03308673054623</v>
+        <v>197.3722399636397</v>
       </c>
       <c r="M12" t="n">
         <v>403.4526632366292</v>
@@ -35509,7 +35509,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q12" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35725,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>141.3237492791391</v>
       </c>
       <c r="L15" t="n">
         <v>300.7391464461244</v>
@@ -35743,7 +35743,7 @@
         <v>326.276269873291</v>
       </c>
       <c r="P15" t="n">
-        <v>170.3630375661004</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -36120,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>38.06115762167966</v>
+        <v>38.06115762167968</v>
       </c>
       <c r="K20" t="n">
-        <v>179.0082576726432</v>
+        <v>179.0082576726433</v>
       </c>
       <c r="L20" t="n">
         <v>274.8802469209098</v>
@@ -36132,7 +36132,7 @@
         <v>322.6315268094071</v>
       </c>
       <c r="N20" t="n">
-        <v>313.0722467132386</v>
+        <v>313.0722467132387</v>
       </c>
       <c r="O20" t="n">
         <v>249.9811662707763</v>
@@ -36141,7 +36141,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q20" t="n">
-        <v>53.63987744680303</v>
+        <v>53.63987744680306</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36202,19 +36202,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L21" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M21" t="n">
-        <v>403.4526632366292</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N21" t="n">
-        <v>331.413953801379</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O21" t="n">
-        <v>326.276269873291</v>
+        <v>74.41604115545286</v>
       </c>
       <c r="P21" t="n">
         <v>244.6906557616239</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>8.438502608243084</v>
+        <v>8.438502608243095</v>
       </c>
       <c r="L22" t="n">
-        <v>66.88568574354741</v>
+        <v>66.88568574354744</v>
       </c>
       <c r="M22" t="n">
-        <v>81.01564128325167</v>
+        <v>81.01564128325168</v>
       </c>
       <c r="N22" t="n">
-        <v>84.57878194962314</v>
+        <v>84.57878194962316</v>
       </c>
       <c r="O22" t="n">
-        <v>61.94411832576036</v>
+        <v>61.94411832576037</v>
       </c>
       <c r="P22" t="n">
-        <v>29.2456295271479</v>
+        <v>29.24562952714791</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36357,10 +36357,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>38.06115762167966</v>
+        <v>38.06115762167968</v>
       </c>
       <c r="K23" t="n">
-        <v>179.0082576726432</v>
+        <v>179.0082576726433</v>
       </c>
       <c r="L23" t="n">
         <v>274.8802469209098</v>
@@ -36369,7 +36369,7 @@
         <v>322.6315268094071</v>
       </c>
       <c r="N23" t="n">
-        <v>313.0722467132386</v>
+        <v>313.0722467132387</v>
       </c>
       <c r="O23" t="n">
         <v>249.9811662707763</v>
@@ -36378,7 +36378,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q23" t="n">
-        <v>53.63987744680303</v>
+        <v>53.63987744680306</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36445,16 +36445,16 @@
         <v>300.7391464461244</v>
       </c>
       <c r="M24" t="n">
-        <v>403.4526632366292</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N24" t="n">
-        <v>405.7415719969023</v>
+        <v>331.4139538013791</v>
       </c>
       <c r="O24" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P24" t="n">
-        <v>170.3630375661004</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36518,22 +36518,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>8.438502608243084</v>
+        <v>8.438502608243095</v>
       </c>
       <c r="L25" t="n">
-        <v>66.88568574354741</v>
+        <v>66.88568574354744</v>
       </c>
       <c r="M25" t="n">
-        <v>81.01564128325167</v>
+        <v>81.01564128325168</v>
       </c>
       <c r="N25" t="n">
-        <v>84.57878194962314</v>
+        <v>84.57878194962316</v>
       </c>
       <c r="O25" t="n">
-        <v>61.94411832576036</v>
+        <v>61.94411832576037</v>
       </c>
       <c r="P25" t="n">
-        <v>29.2456295271479</v>
+        <v>29.24562952714791</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>38.06115762167966</v>
+        <v>38.06115762167967</v>
       </c>
       <c r="K26" t="n">
         <v>179.0082576726432</v>
@@ -36606,7 +36606,7 @@
         <v>322.6315268094071</v>
       </c>
       <c r="N26" t="n">
-        <v>313.0722467132386</v>
+        <v>313.0722467132387</v>
       </c>
       <c r="O26" t="n">
         <v>249.9811662707763</v>
@@ -36615,7 +36615,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q26" t="n">
-        <v>53.63987744680303</v>
+        <v>53.63987744680304</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L27" t="n">
         <v>300.7391464461244</v>
@@ -36685,13 +36685,13 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N27" t="n">
-        <v>331.413953801379</v>
+        <v>398.571999040688</v>
       </c>
       <c r="O27" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P27" t="n">
-        <v>244.6906557616239</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36755,16 +36755,16 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>8.438502608243084</v>
+        <v>8.438502608243091</v>
       </c>
       <c r="L28" t="n">
-        <v>66.88568574354741</v>
+        <v>66.88568574354743</v>
       </c>
       <c r="M28" t="n">
-        <v>81.01564128325167</v>
+        <v>81.01564128325168</v>
       </c>
       <c r="N28" t="n">
-        <v>84.57878194962314</v>
+        <v>84.57878194962315</v>
       </c>
       <c r="O28" t="n">
         <v>61.94411832576036</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>38.06115762167966</v>
+        <v>38.06115762167967</v>
       </c>
       <c r="K29" t="n">
         <v>179.0082576726432</v>
@@ -36843,7 +36843,7 @@
         <v>322.6315268094071</v>
       </c>
       <c r="N29" t="n">
-        <v>313.0722467132386</v>
+        <v>313.0722467132387</v>
       </c>
       <c r="O29" t="n">
         <v>249.9811662707763</v>
@@ -36852,7 +36852,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q29" t="n">
-        <v>53.63987744680303</v>
+        <v>53.63987744680304</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L30" t="n">
         <v>300.7391464461244</v>
@@ -36922,7 +36922,7 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N30" t="n">
-        <v>221.0748005682852</v>
+        <v>14.50290175900885</v>
       </c>
       <c r="O30" t="n">
         <v>326.276269873291</v>
@@ -36992,16 +36992,16 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>8.438502608243084</v>
+        <v>8.438502608243091</v>
       </c>
       <c r="L31" t="n">
-        <v>66.88568574354741</v>
+        <v>66.88568574354743</v>
       </c>
       <c r="M31" t="n">
-        <v>81.01564128325167</v>
+        <v>81.01564128325168</v>
       </c>
       <c r="N31" t="n">
-        <v>84.57878194962314</v>
+        <v>84.57878194962315</v>
       </c>
       <c r="O31" t="n">
         <v>61.94411832576036</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>38.06115762167966</v>
+        <v>38.06115762167967</v>
       </c>
       <c r="K32" t="n">
         <v>179.0082576726432</v>
@@ -37080,7 +37080,7 @@
         <v>322.6315268094071</v>
       </c>
       <c r="N32" t="n">
-        <v>313.0722467132386</v>
+        <v>313.0722467132387</v>
       </c>
       <c r="O32" t="n">
         <v>249.9811662707763</v>
@@ -37089,7 +37089,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q32" t="n">
-        <v>53.63987744680303</v>
+        <v>53.63987744680304</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>177.5326105223148</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>300.7391464461244</v>
@@ -37159,7 +37159,7 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N33" t="n">
-        <v>153.8813432790641</v>
+        <v>331.413953801379</v>
       </c>
       <c r="O33" t="n">
         <v>326.276269873291</v>
@@ -37229,16 +37229,16 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>8.438502608243084</v>
+        <v>8.438502608243091</v>
       </c>
       <c r="L34" t="n">
-        <v>66.88568574354741</v>
+        <v>66.88568574354743</v>
       </c>
       <c r="M34" t="n">
-        <v>81.01564128325167</v>
+        <v>81.01564128325168</v>
       </c>
       <c r="N34" t="n">
-        <v>84.57878194962314</v>
+        <v>84.57878194962315</v>
       </c>
       <c r="O34" t="n">
         <v>61.94411832576036</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>38.06115762167966</v>
+        <v>38.06115762167967</v>
       </c>
       <c r="K35" t="n">
         <v>179.0082576726432</v>
@@ -37317,7 +37317,7 @@
         <v>322.6315268094071</v>
       </c>
       <c r="N35" t="n">
-        <v>313.0722467132386</v>
+        <v>313.0722467132387</v>
       </c>
       <c r="O35" t="n">
         <v>249.9811662707763</v>
@@ -37326,7 +37326,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q35" t="n">
-        <v>53.63987744680303</v>
+        <v>53.63987744680304</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L36" t="n">
         <v>300.7391464461244</v>
@@ -37396,16 +37396,16 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N36" t="n">
-        <v>405.7415719969023</v>
+        <v>14.50290175900931</v>
       </c>
       <c r="O36" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P36" t="n">
-        <v>170.3630375661004</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37466,16 +37466,16 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>8.438502608243084</v>
+        <v>8.438502608243091</v>
       </c>
       <c r="L37" t="n">
-        <v>66.88568574354741</v>
+        <v>66.88568574354743</v>
       </c>
       <c r="M37" t="n">
-        <v>81.01564128325167</v>
+        <v>81.01564128325168</v>
       </c>
       <c r="N37" t="n">
-        <v>84.57878194962314</v>
+        <v>84.57878194962315</v>
       </c>
       <c r="O37" t="n">
         <v>61.94411832576036</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>38.06115762167966</v>
+        <v>38.06115762167967</v>
       </c>
       <c r="K38" t="n">
         <v>179.0082576726432</v>
@@ -37554,7 +37554,7 @@
         <v>322.6315268094071</v>
       </c>
       <c r="N38" t="n">
-        <v>313.0722467132386</v>
+        <v>313.0722467132387</v>
       </c>
       <c r="O38" t="n">
         <v>249.9811662707763</v>
@@ -37563,7 +37563,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q38" t="n">
-        <v>53.63987744680303</v>
+        <v>53.63987744680304</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>29.03928828696145</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>177.5326105223148</v>
@@ -37633,7 +37633,7 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N39" t="n">
-        <v>14.50290175900885</v>
+        <v>153.8813432790641</v>
       </c>
       <c r="O39" t="n">
         <v>326.276269873291</v>
@@ -37642,7 +37642,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q39" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,16 +37703,16 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>8.438502608243084</v>
+        <v>8.438502608243091</v>
       </c>
       <c r="L40" t="n">
-        <v>66.88568574354741</v>
+        <v>66.88568574354743</v>
       </c>
       <c r="M40" t="n">
-        <v>81.01564128325167</v>
+        <v>81.01564128325168</v>
       </c>
       <c r="N40" t="n">
-        <v>84.57878194962314</v>
+        <v>84.57878194962315</v>
       </c>
       <c r="O40" t="n">
         <v>61.94411832576036</v>
@@ -37779,10 +37779,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>38.06115762167967</v>
+        <v>38.06115762167952</v>
       </c>
       <c r="K41" t="n">
-        <v>179.0082576726431</v>
+        <v>179.0082576726432</v>
       </c>
       <c r="L41" t="n">
         <v>274.8802469209098</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L42" t="n">
         <v>300.7391464461244</v>
@@ -37870,13 +37870,13 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N42" t="n">
-        <v>405.7415719969023</v>
+        <v>153.8813432790641</v>
       </c>
       <c r="O42" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P42" t="n">
-        <v>141.323749279139</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
